--- a/test_契約管理/已完成/test_契約管理_自賠責保険_任意保険一覧.xlsx
+++ b/test_契約管理/已完成/test_契約管理_自賠責保険_任意保険一覧.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27150" windowHeight="13650" tabRatio="850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27150" windowHeight="13650" tabRatio="850"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="20" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8540" uniqueCount="857">
   <si>
     <t>SQL</t>
   </si>
@@ -2498,7 +2498,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;!DOCTYPE html&gt;</t>
     </r>
@@ -2507,7 +2507,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2517,7 +2517,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;html&gt;</t>
     </r>
@@ -2526,7 +2526,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2536,7 +2536,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;head&gt;</t>
     </r>
@@ -2545,7 +2545,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2555,7 +2555,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;/head&gt;</t>
     </r>
@@ -2564,7 +2564,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2574,7 +2574,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;body&gt;</t>
     </r>
@@ -2583,7 +2583,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2593,7 +2593,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;p&gt;契約者００１ 様&lt;/p&gt;</t>
     </r>
@@ -2602,7 +2602,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2612,7 +2612,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;p&gt;平素は、ホーメストハイツ蒲田駐車場をご使用いただき誠にありがとうございます。&lt;br /&gt;株式会社○○○・○○○○○でございます。&lt;/p&gt;</t>
     </r>
@@ -2621,7 +2621,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2631,7 +2631,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;p&gt;ご提出いただいた&lt;span style="color: #ff0000;"&gt;自賠責保険&lt;/span&gt;の有効期限が月で満了を迎えます。&lt;/p&gt;</t>
     </r>
@@ -2640,7 +2640,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2650,7 +2650,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;p&gt;ついては、大変お手数ではございますが、&lt;br /&gt;2018年6月13日までに新しい保険証明書の写しを、&lt;br /&gt;メールまたはFAX、郵送等で弊社までご送付くださいますようお願い申し上げます。&lt;/p&gt;</t>
     </r>
@@ -2659,7 +2659,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2669,7 +2669,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;p&gt;※駐車場使用契約書第17条（特約事項）に記載のとおり、&lt;br /&gt;　契約時及び保険内容等の変更があった際には、&lt;br /&gt;　変更後の自動車保険証明書の写しをご提出いただく必要がございます&lt;/p&gt;</t>
     </r>
@@ -2678,7 +2678,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2688,7 +2688,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;p&gt;ご不明な点がございましたら、お気軽にお問い合せください。&lt;br /&gt;どうぞよろしくお願い申し上げます。&lt;/p&gt;</t>
     </r>
@@ -2697,7 +2697,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2707,7 +2707,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -2716,7 +2716,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;div style="border-top: 1px solid gray; border-bottom: 1px solid gray; padding: 15px 0px; float: left; min-width: 520px;"&gt;</t>
     </r>
@@ -2725,7 +2725,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2735,7 +2735,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -2744,7 +2744,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>株式会社○○○・○○○○○&lt;span style="margin-left: 50px;"&gt;担当：&lt;/span&gt;&lt;br /&gt;</t>
     </r>
@@ -2753,7 +2753,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2763,7 +2763,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -2772,7 +2772,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>email@example.com&lt;br /&gt;&lt;br /&gt;</t>
     </r>
@@ -2781,7 +2781,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2791,7 +2791,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -2800,7 +2800,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;span style="margin-left: 15px;"&gt;〒123-4567&lt;/span&gt;&lt;span style="margin-left: 30px;"&gt;東京都港区芝2丁目   ２－２－２○○ビル　１０階&lt;/span&gt;&lt;br /&gt;</t>
     </r>
@@ -2809,7 +2809,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2819,7 +2819,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -2828,7 +2828,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;span style="margin-left: 15px;"&gt;TEL.080-1234-5678&lt;/span&gt;&lt;span style="margin-left: 15px;"&gt;FAX.070-1234-5678&lt;/span&gt;&lt;br /&gt;</t>
     </r>
@@ -2837,7 +2837,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2847,7 +2847,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -2856,7 +2856,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;span style="margin-left: 15px;"&gt;営業時間：平日 9 時〜18 時（祝祭日・年末年始除く）&lt;/span&gt;</t>
     </r>
@@ -2865,7 +2865,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2875,7 +2875,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -2884,7 +2884,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;/div&gt;</t>
     </r>
@@ -2893,7 +2893,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2903,7 +2903,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -2912,7 +2912,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;div style="clear: both;"&gt; &lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
     </r>
@@ -2932,7 +2932,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;!DOCTYPE html&gt;</t>
     </r>
@@ -2941,7 +2941,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2951,7 +2951,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;html&gt;</t>
     </r>
@@ -2960,7 +2960,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2970,7 +2970,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;head&gt;</t>
     </r>
@@ -2979,7 +2979,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2989,7 +2989,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;/head&gt;</t>
     </r>
@@ -2998,7 +2998,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3008,7 +3008,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;body&gt;</t>
     </r>
@@ -3017,7 +3017,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3027,7 +3027,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;p&gt;契約者００１ 様&lt;/p&gt;</t>
     </r>
@@ -3036,7 +3036,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3046,7 +3046,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;p&gt;平素は、ホーメストハイツ蒲田駐車場をご使用いただき誠にありがとうございます。&lt;br /&gt;株式会社○○○・○○○○○でございます。&lt;/p&gt;</t>
     </r>
@@ -3055,7 +3055,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3065,7 +3065,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;p&gt;ご提出いただいた&lt;span style="color: #ff0000;"&gt;任意保険&lt;/span&gt;の有効期限が月で満了を迎えます。&lt;/p&gt;</t>
     </r>
@@ -3074,7 +3074,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3084,7 +3084,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;p&gt;ついては、大変お手数ではございますが、&lt;br /&gt;2018年6月13日までに新しい保険証明書の写しを、&lt;br /&gt;メールまたはFAX、郵送等で弊社までご送付くださいますようお願い申し上げます。&lt;/p&gt;</t>
     </r>
@@ -3093,7 +3093,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3103,7 +3103,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;p&gt;※駐車場使用契約書第17条（特約事項）に記載のとおり、&lt;br /&gt;　契約時及び保険内容等の変更があった際には、&lt;br /&gt;　変更後の自動車保険証明書の写しをご提出いただく必要がございます&lt;/p&gt;</t>
     </r>
@@ -3112,7 +3112,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3122,7 +3122,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;p&gt;ご不明な点がございましたら、お気軽にお問い合せください。&lt;br /&gt;どうぞよろしくお願い申し上げます。&lt;/p&gt;</t>
     </r>
@@ -3131,7 +3131,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3141,7 +3141,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -3150,7 +3150,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;div style="border-top: 1px solid gray; border-bottom: 1px solid gray; padding: 15px 0px; float: left; min-width: 520px;"&gt;</t>
     </r>
@@ -3159,7 +3159,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3169,7 +3169,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -3178,7 +3178,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>株式会社○○○・○○○○○&lt;span style="margin-left: 50px;"&gt;担当：&lt;/span&gt;&lt;br /&gt;</t>
     </r>
@@ -3187,7 +3187,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3197,7 +3197,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -3206,7 +3206,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>email@example.com&lt;br /&gt;&lt;br /&gt;</t>
     </r>
@@ -3215,7 +3215,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3225,7 +3225,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -3234,7 +3234,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;span style="margin-left: 15px;"&gt;〒123-4567&lt;/span&gt;&lt;span style="margin-left: 30px;"&gt;東京都港区芝2丁目   ２－２－２○○ビル　１０階&lt;/span&gt;&lt;br /&gt;</t>
     </r>
@@ -3243,7 +3243,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3253,7 +3253,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -3262,7 +3262,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;span style="margin-left: 15px;"&gt;TEL.080-1234-5678&lt;/span&gt;&lt;span style="margin-left: 15px;"&gt;FAX.070-1234-5678&lt;/span&gt;&lt;br /&gt;</t>
     </r>
@@ -3271,7 +3271,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3281,7 +3281,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">            </t>
     </r>
@@ -3290,7 +3290,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;span style="margin-left: 15px;"&gt;営業時間：平日 9 時〜18 時（祝祭日・年末年始除く）&lt;/span&gt;</t>
     </r>
@@ -3299,7 +3299,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3309,7 +3309,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -3318,7 +3318,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;/div&gt;</t>
     </r>
@@ -3327,7 +3327,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3337,7 +3337,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -3346,7 +3346,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>&lt;div style="clear: both;"&gt; &lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
     </r>
@@ -3447,15 +3447,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3475,7 +3471,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3494,12 +3490,12 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3513,20 +3509,20 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3539,13 +3535,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -3560,14 +3556,14 @@
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3580,159 +3576,29 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="46">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3741,7 +3607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3753,13 +3619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399914548173467"/>
+        <fgColor theme="8" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3771,19 +3637,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399914548173467"/>
+        <fgColor theme="7" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399914548173467"/>
+        <fgColor theme="9" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3801,7 +3667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399884029663991"/>
+        <fgColor theme="8" tint="0.39985351115451523"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3819,7 +3685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
+        <fgColor theme="0" tint="-0.1498764000366222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3835,176 +3701,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4051,254 +3749,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4313,7 +3772,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4323,21 +3782,21 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4367,7 +3826,7 @@
     <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4382,18 +3841,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4421,7 +3880,7 @@
     <xf numFmtId="49" fontId="10" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="5" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -4462,67 +3921,48 @@
     <xf numFmtId="49" fontId="10" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="10" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="10" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
+    <cellStyle name="標準 26" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="標準 26" xfId="14"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="167">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4537,12 +3977,1139 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFF99"/>
-      <color rgb="00FFFFCC"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4834,16 +5401,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:IE289"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="F284" sqref="F284"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -4874,7 +5441,7 @@
     <col min="75" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4882,7 +5449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:2">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
@@ -4890,7 +5457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:7">
+    <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
@@ -4912,7 +5479,7 @@
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
     </row>
-    <row r="6" customFormat="1" ht="14.25" spans="1:2">
+    <row r="6" spans="1:7" customFormat="1" ht="14.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -4920,7 +5487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="1" ht="14.25" spans="1:2">
+    <row r="7" spans="1:7" customFormat="1" ht="14.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -4928,7 +5495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="14.25" spans="1:2">
+    <row r="8" spans="1:7" customFormat="1" ht="14.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -4936,7 +5503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="9" spans="1:7" customFormat="1" ht="14.25">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -4944,7 +5511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:2">
+    <row r="10" spans="1:7" customFormat="1" ht="14.25">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -4952,11 +5519,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="1" ht="13.5" spans="1:2">
+    <row r="11" spans="1:7" customFormat="1" ht="13.5">
       <c r="A11" s="38"/>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:2">
+    <row r="12" spans="1:7" customFormat="1" ht="14.25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -4964,7 +5531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:2">
+    <row r="13" spans="1:7" customFormat="1" ht="14.25">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -4972,10 +5539,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="13.5" spans="2:2">
+    <row r="14" spans="1:7" customFormat="1" ht="13.5">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:2">
+    <row r="15" spans="1:7" customFormat="1" ht="14.25">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -4983,7 +5550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:2">
+    <row r="16" spans="1:7" customFormat="1" ht="14.25">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -4991,7 +5558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="14.25" spans="1:2">
+    <row r="17" spans="1:2" customFormat="1" ht="14.25">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -4999,7 +5566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:2">
+    <row r="18" spans="1:2" customFormat="1" ht="14.25">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -5007,7 +5574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="14.25" spans="1:2">
+    <row r="19" spans="1:2" customFormat="1" ht="14.25">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
@@ -5015,16 +5582,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="14.25" spans="1:2">
+    <row r="20" spans="1:2" customFormat="1" ht="14.25">
       <c r="A20" s="2"/>
       <c r="B20" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="13.5" spans="2:2">
+    <row r="21" spans="1:2" customFormat="1" ht="13.5">
       <c r="B21" s="35"/>
     </row>
-    <row r="22" customFormat="1" ht="14.25" spans="1:2">
+    <row r="22" spans="1:2" customFormat="1" ht="14.25">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -5032,7 +5599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="14.25" spans="1:2">
+    <row r="23" spans="1:2" customFormat="1" ht="14.25">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -5040,7 +5607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="14.25" spans="1:2">
+    <row r="24" spans="1:2" customFormat="1" ht="14.25">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -5048,11 +5615,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="13.5" spans="1:2">
+    <row r="25" spans="1:2" customFormat="1" ht="13.5">
       <c r="A25" s="38"/>
       <c r="B25" s="9"/>
     </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:2">
+    <row r="26" spans="1:2" customFormat="1" ht="14.25">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -5060,7 +5627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="1" ht="14.25" spans="1:2">
+    <row r="27" spans="1:2" customFormat="1" ht="14.25">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -5068,7 +5635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" customFormat="1" ht="14.25" spans="1:2">
+    <row r="28" spans="1:2" customFormat="1" ht="14.25">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
@@ -5076,7 +5643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="14.25" spans="1:2">
+    <row r="29" spans="1:2" customFormat="1" ht="14.25">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -5084,11 +5651,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" customFormat="1" ht="13.5" spans="1:2">
+    <row r="30" spans="1:2" customFormat="1" ht="13.5">
       <c r="A30" s="38"/>
       <c r="B30" s="9"/>
     </row>
-    <row r="31" customFormat="1" ht="14.25" spans="1:2">
+    <row r="31" spans="1:2" customFormat="1" ht="14.25">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
@@ -5096,7 +5663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" customFormat="1" ht="14.25" spans="1:2">
+    <row r="32" spans="1:2" customFormat="1" ht="14.25">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
@@ -5104,7 +5671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="14.25" spans="1:2">
+    <row r="33" spans="1:2" customFormat="1" ht="14.25">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
@@ -5112,7 +5679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" customFormat="1" ht="14.25" spans="1:2">
+    <row r="34" spans="1:2" customFormat="1" ht="14.25">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
@@ -5120,7 +5687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" customFormat="1" ht="14.25" spans="1:2">
+    <row r="35" spans="1:2" customFormat="1" ht="14.25">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
@@ -5128,7 +5695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" customFormat="1" ht="14.25" spans="1:2">
+    <row r="36" spans="1:2" customFormat="1" ht="14.25">
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
@@ -5136,7 +5703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="14.25" spans="1:2">
+    <row r="37" spans="1:2" customFormat="1" ht="14.25">
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
@@ -5144,7 +5711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" customFormat="1" ht="14.25" spans="1:2">
+    <row r="38" spans="1:2" customFormat="1" ht="14.25">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
@@ -5152,7 +5719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" customFormat="1" ht="14.25" spans="1:2">
+    <row r="39" spans="1:2" customFormat="1" ht="14.25">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
@@ -5160,7 +5727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" customFormat="1" ht="14.25" spans="1:2">
+    <row r="40" spans="1:2" customFormat="1" ht="14.25">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
@@ -5168,7 +5735,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" customFormat="1" ht="14.25" spans="1:2">
+    <row r="41" spans="1:2" customFormat="1" ht="14.25">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
@@ -5176,7 +5743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" customFormat="1" ht="14.25" spans="1:2">
+    <row r="42" spans="1:2" customFormat="1" ht="14.25">
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
@@ -5184,7 +5751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="14.25" spans="1:2">
+    <row r="43" spans="1:2" customFormat="1" ht="14.25">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
@@ -5192,7 +5759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="14.25" spans="1:2">
+    <row r="44" spans="1:2" customFormat="1" ht="14.25">
       <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
@@ -5200,7 +5767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" customFormat="1" ht="14.25" spans="1:2">
+    <row r="45" spans="1:2" customFormat="1" ht="14.25">
       <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
@@ -5208,7 +5775,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" customFormat="1" ht="14.25" spans="1:2">
+    <row r="46" spans="1:2" customFormat="1" ht="14.25">
       <c r="A46" s="2" t="s">
         <v>0</v>
       </c>
@@ -5216,7 +5783,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" customFormat="1" ht="14.25" spans="1:2">
+    <row r="47" spans="1:2" customFormat="1" ht="14.25">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
@@ -5224,7 +5791,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" customFormat="1" ht="14.25" spans="1:2">
+    <row r="48" spans="1:2" customFormat="1" ht="14.25">
       <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
@@ -5232,7 +5799,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" customFormat="1" ht="14.25" spans="1:2">
+    <row r="49" spans="1:8" customFormat="1" ht="14.25">
       <c r="A49" s="2" t="s">
         <v>0</v>
       </c>
@@ -5240,7 +5807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" customFormat="1" ht="14.25" spans="1:2">
+    <row r="50" spans="1:8" customFormat="1" ht="14.25">
       <c r="A50" s="2" t="s">
         <v>0</v>
       </c>
@@ -5248,7 +5815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" customFormat="1" ht="14.25" spans="1:2">
+    <row r="51" spans="1:8" customFormat="1" ht="14.25">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
@@ -5256,7 +5823,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" customFormat="1" ht="14.25" spans="1:2">
+    <row r="52" spans="1:8" customFormat="1" ht="14.25">
       <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
@@ -5264,7 +5831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" customFormat="1" ht="14.25" spans="1:2">
+    <row r="53" spans="1:8" customFormat="1" ht="14.25">
       <c r="A53" s="2" t="s">
         <v>0</v>
       </c>
@@ -5272,7 +5839,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" customFormat="1" ht="14.25" spans="1:2">
+    <row r="54" spans="1:8" customFormat="1" ht="14.25">
       <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
@@ -5280,7 +5847,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" customFormat="1" ht="14.25" spans="1:2">
+    <row r="55" spans="1:8" customFormat="1" ht="14.25">
       <c r="A55" s="2" t="s">
         <v>0</v>
       </c>
@@ -5288,7 +5855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" customFormat="1" ht="14.25" spans="1:2">
+    <row r="56" spans="1:8" customFormat="1" ht="14.25">
       <c r="A56" s="2" t="s">
         <v>0</v>
       </c>
@@ -5296,7 +5863,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" customFormat="1" ht="14.25" spans="1:2">
+    <row r="57" spans="1:8" customFormat="1" ht="14.25">
       <c r="A57" s="2" t="s">
         <v>0</v>
       </c>
@@ -5304,17 +5871,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" customFormat="1" ht="13.5" spans="2:2">
+    <row r="58" spans="1:8" customFormat="1" ht="13.5">
       <c r="B58" s="35"/>
     </row>
-    <row r="59" customFormat="1" ht="13.5" spans="2:2">
+    <row r="59" spans="1:8" customFormat="1" ht="13.5">
       <c r="B59" s="35"/>
     </row>
-    <row r="60" customFormat="1" ht="13.5" spans="1:2">
+    <row r="60" spans="1:8" customFormat="1" ht="13.5">
       <c r="A60" s="1"/>
       <c r="B60" s="15"/>
     </row>
-    <row r="61" customFormat="1" ht="14.25" spans="1:8">
+    <row r="61" spans="1:8" customFormat="1" ht="14.25">
       <c r="A61" s="2" t="s">
         <v>0</v>
       </c>
@@ -5327,7 +5894,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" customFormat="1" ht="14.25" spans="1:8">
+    <row r="62" spans="1:8" customFormat="1" ht="14.25">
       <c r="A62" s="2" t="s">
         <v>0</v>
       </c>
@@ -5341,7 +5908,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" customFormat="1" ht="14.25" spans="1:8">
+    <row r="63" spans="1:8" customFormat="1" ht="14.25">
       <c r="A63" s="2" t="s">
         <v>0</v>
       </c>
@@ -5355,7 +5922,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" customFormat="1" ht="14.25" spans="1:8">
+    <row r="64" spans="1:8" customFormat="1" ht="14.25">
       <c r="A64" s="2" t="s">
         <v>0</v>
       </c>
@@ -5369,7 +5936,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" customFormat="1" ht="13.5" spans="1:8">
+    <row r="65" spans="1:19" customFormat="1" ht="13.5">
       <c r="A65" s="38"/>
       <c r="B65" s="35"/>
       <c r="C65" s="38"/>
@@ -5379,10 +5946,8 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A66" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="66" spans="1:19" customFormat="1" ht="14.25">
+      <c r="A66" s="2"/>
       <c r="B66" s="35" t="s">
         <v>53</v>
       </c>
@@ -5393,7 +5958,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" customFormat="1" ht="14.25" spans="1:8">
+    <row r="67" spans="1:19" customFormat="1" ht="14.25">
       <c r="A67" s="2" t="s">
         <v>0</v>
       </c>
@@ -5407,7 +5972,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" customFormat="1" ht="14.25" spans="1:8">
+    <row r="68" spans="1:19" customFormat="1" ht="14.25">
       <c r="A68" s="2" t="s">
         <v>0</v>
       </c>
@@ -5421,7 +5986,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" customFormat="1" ht="14.25" spans="1:8">
+    <row r="69" spans="1:19" customFormat="1" ht="14.25">
       <c r="A69" s="2" t="s">
         <v>0</v>
       </c>
@@ -5435,7 +6000,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" customFormat="1" ht="14.25" spans="1:8">
+    <row r="70" spans="1:19" customFormat="1" ht="14.25">
       <c r="A70" s="2" t="s">
         <v>0</v>
       </c>
@@ -5449,7 +6014,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" customFormat="1" ht="14.25" spans="1:2">
+    <row r="71" spans="1:19" customFormat="1" ht="14.25">
       <c r="A71" s="2" t="s">
         <v>0</v>
       </c>
@@ -5457,7 +6022,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:19">
       <c r="A72" s="38"/>
       <c r="B72" s="9"/>
       <c r="C72" s="38"/>
@@ -5466,7 +6031,7 @@
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:19">
       <c r="A73" s="38"/>
       <c r="B73" s="9"/>
       <c r="C73" s="38"/>
@@ -5475,7 +6040,7 @@
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
     </row>
-    <row r="74" customFormat="1" ht="13.5" spans="1:7">
+    <row r="74" spans="1:19" customFormat="1" ht="13.5">
       <c r="A74" s="38"/>
       <c r="B74" s="9"/>
       <c r="C74" s="38"/>
@@ -5484,7 +6049,7 @@
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
     </row>
-    <row r="75" s="38" customFormat="1" ht="14.25" spans="1:2">
+    <row r="75" spans="1:19" s="38" customFormat="1" ht="14.25">
       <c r="A75" s="50" t="s">
         <v>59</v>
       </c>
@@ -5492,7 +6057,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" s="38" customFormat="1" spans="2:19">
+    <row r="76" spans="1:19" s="38" customFormat="1">
       <c r="B76" s="51" t="s">
         <v>61</v>
       </c>
@@ -5548,7 +6113,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" s="38" customFormat="1" spans="2:19">
+    <row r="77" spans="1:19" s="38" customFormat="1">
       <c r="B77" s="11" t="s">
         <v>63</v>
       </c>
@@ -5604,7 +6169,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" s="38" customFormat="1" spans="2:19">
+    <row r="78" spans="1:19" s="38" customFormat="1">
       <c r="B78" s="31" t="s">
         <v>81</v>
       </c>
@@ -5660,7 +6225,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" s="38" customFormat="1" spans="2:19">
+    <row r="79" spans="1:19" s="38" customFormat="1">
       <c r="B79" s="31" t="s">
         <v>87</v>
       </c>
@@ -5716,7 +6281,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" s="38" customFormat="1" spans="2:19">
+    <row r="80" spans="1:19" s="38" customFormat="1">
       <c r="B80" s="31" t="s">
         <v>90</v>
       </c>
@@ -5772,7 +6337,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" s="38" customFormat="1" spans="2:19">
+    <row r="81" spans="1:239" s="38" customFormat="1">
       <c r="B81" s="31" t="s">
         <v>93</v>
       </c>
@@ -5828,7 +6393,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" s="38" customFormat="1" spans="2:19">
+    <row r="82" spans="1:239" s="38" customFormat="1">
       <c r="B82" s="31" t="s">
         <v>97</v>
       </c>
@@ -5884,7 +6449,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" s="38" customFormat="1" spans="2:19">
+    <row r="83" spans="1:239" s="38" customFormat="1">
       <c r="B83" s="31" t="s">
         <v>100</v>
       </c>
@@ -5940,7 +6505,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" s="38" customFormat="1" spans="2:19">
+    <row r="84" spans="1:239" s="38" customFormat="1">
       <c r="B84" s="31" t="s">
         <v>102</v>
       </c>
@@ -5996,10 +6561,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" s="38" customFormat="1" spans="2:2">
+    <row r="85" spans="1:239" s="38" customFormat="1">
       <c r="B85" s="9"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:239">
       <c r="A86" s="38"/>
       <c r="B86" s="9"/>
       <c r="C86" s="38"/>
@@ -6008,7 +6573,7 @@
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
     </row>
-    <row r="87" customFormat="1" ht="13.5" spans="1:7">
+    <row r="87" spans="1:239" customFormat="1" ht="13.5">
       <c r="A87" s="38"/>
       <c r="B87" s="9"/>
       <c r="C87" s="38"/>
@@ -6017,7 +6582,7 @@
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
     </row>
-    <row r="88" s="43" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+    <row r="88" spans="1:239" s="43" customFormat="1" ht="12.75" customHeight="1">
       <c r="A88" s="54" t="s">
         <v>59</v>
       </c>
@@ -6025,7 +6590,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" s="43" customFormat="1" ht="13.5" spans="2:71">
+    <row r="89" spans="1:239" s="43" customFormat="1" ht="13.5">
       <c r="B89" s="56" t="s">
         <v>106</v>
       </c>
@@ -6099,7 +6664,7 @@
       <c r="BR89" s="57"/>
       <c r="BS89" s="57"/>
     </row>
-    <row r="90" s="43" customFormat="1" ht="13.5" spans="1:74">
+    <row r="90" spans="1:239" s="43" customFormat="1" ht="13.5">
       <c r="A90" s="27"/>
       <c r="B90" s="58" t="s">
         <v>64</v>
@@ -6321,7 +6886,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" s="43" customFormat="1" ht="13.5" spans="1:239">
+    <row r="91" spans="1:239" s="43" customFormat="1" ht="13.5">
       <c r="A91" s="61"/>
       <c r="B91" s="32" t="s">
         <v>82</v>
@@ -6708,7 +7273,7 @@
       <c r="ID91" s="27"/>
       <c r="IE91" s="27"/>
     </row>
-    <row r="92" customFormat="1" ht="13.5" spans="1:239">
+    <row r="92" spans="1:239" customFormat="1" ht="13.5">
       <c r="A92" s="27"/>
       <c r="B92" s="32" t="s">
         <v>94</v>
@@ -7095,7 +7660,7 @@
       <c r="ID92" s="27"/>
       <c r="IE92" s="27"/>
     </row>
-    <row r="93" customFormat="1" ht="13.5" spans="1:239">
+    <row r="93" spans="1:239" customFormat="1" ht="13.5">
       <c r="A93" s="3"/>
       <c r="B93" s="32" t="s">
         <v>94</v>
@@ -7482,7 +8047,7 @@
       <c r="ID93" s="27"/>
       <c r="IE93" s="27"/>
     </row>
-    <row r="94" s="44" customFormat="1" ht="13.5" spans="1:239">
+    <row r="94" spans="1:239" s="44" customFormat="1" ht="13.5">
       <c r="A94" s="62"/>
       <c r="B94" s="63" t="s">
         <v>82</v>
@@ -7869,7 +8434,7 @@
       <c r="ID94" s="66"/>
       <c r="IE94" s="66"/>
     </row>
-    <row r="95" customFormat="1" ht="13.5" spans="1:239">
+    <row r="95" spans="1:239" customFormat="1" ht="13.5">
       <c r="A95" s="3"/>
       <c r="B95" s="32" t="s">
         <v>82</v>
@@ -8256,7 +8821,7 @@
       <c r="ID95" s="27"/>
       <c r="IE95" s="27"/>
     </row>
-    <row r="96" customFormat="1" ht="13.5" spans="1:239">
+    <row r="96" spans="1:239" customFormat="1" ht="13.5">
       <c r="A96" s="3"/>
       <c r="B96" s="32" t="s">
         <v>94</v>
@@ -8643,7 +9208,7 @@
       <c r="ID96" s="27"/>
       <c r="IE96" s="27"/>
     </row>
-    <row r="97" customFormat="1" ht="13.5" spans="1:239">
+    <row r="97" spans="1:239" customFormat="1" ht="13.5">
       <c r="A97" s="3"/>
       <c r="B97" s="32" t="s">
         <v>94</v>
@@ -9030,7 +9595,7 @@
       <c r="ID97" s="27"/>
       <c r="IE97" s="27"/>
     </row>
-    <row r="98" customFormat="1" ht="13.5" spans="1:239">
+    <row r="98" spans="1:239" customFormat="1" ht="13.5">
       <c r="A98" s="3"/>
       <c r="B98" s="32" t="s">
         <v>82</v>
@@ -9417,7 +9982,7 @@
       <c r="ID98" s="27"/>
       <c r="IE98" s="27"/>
     </row>
-    <row r="99" customFormat="1" ht="13.5" spans="1:7">
+    <row r="99" spans="1:239" customFormat="1" ht="13.5">
       <c r="A99" s="38"/>
       <c r="B99" s="9"/>
       <c r="C99" s="38"/>
@@ -9426,7 +9991,7 @@
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
     </row>
-    <row r="103" ht="14.25" spans="1:10">
+    <row r="103" spans="1:239" ht="14.25">
       <c r="A103" s="50" t="s">
         <v>59</v>
       </c>
@@ -9442,7 +10007,7 @@
       <c r="I103" s="38"/>
       <c r="J103" s="38"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="1:239">
       <c r="B104" s="51" t="s">
         <v>226</v>
       </c>
@@ -9471,7 +10036,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:239">
       <c r="A105" s="38"/>
       <c r="B105" s="11" t="s">
         <v>63</v>
@@ -9501,7 +10066,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:239">
       <c r="A106" s="38"/>
       <c r="B106" s="31" t="s">
         <v>81</v>
@@ -9531,7 +10096,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:239">
       <c r="A107" s="38"/>
       <c r="B107" s="31" t="s">
         <v>87</v>
@@ -9561,7 +10126,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:239">
       <c r="A108" s="38"/>
       <c r="B108" s="31" t="s">
         <v>90</v>
@@ -9591,7 +10156,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:239">
       <c r="A109" s="38"/>
       <c r="B109" s="31" t="s">
         <v>93</v>
@@ -9621,7 +10186,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:239">
       <c r="A110" s="38"/>
       <c r="B110" s="31" t="s">
         <v>97</v>
@@ -9651,7 +10216,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:239">
       <c r="A111" s="38"/>
       <c r="B111" s="31" t="s">
         <v>100</v>
@@ -9681,7 +10246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:239">
       <c r="A112" s="38"/>
       <c r="B112" s="31" t="s">
         <v>102</v>
@@ -9711,7 +10276,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="115" s="38" customFormat="1" ht="14.25" spans="1:2">
+    <row r="115" spans="1:35" s="38" customFormat="1" ht="14.25">
       <c r="A115" s="50" t="s">
         <v>59</v>
       </c>
@@ -9719,7 +10284,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="116" s="38" customFormat="1" spans="2:13">
+    <row r="116" spans="1:35" s="38" customFormat="1">
       <c r="B116" s="51" t="s">
         <v>234</v>
       </c>
@@ -9757,7 +10322,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="117" s="38" customFormat="1" spans="2:13">
+    <row r="117" spans="1:35" s="38" customFormat="1">
       <c r="B117" s="11" t="s">
         <v>63</v>
       </c>
@@ -9795,7 +10360,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" s="38" customFormat="1" spans="2:13">
+    <row r="118" spans="1:35" s="38" customFormat="1">
       <c r="B118" s="31" t="s">
         <v>81</v>
       </c>
@@ -9833,7 +10398,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="119" s="38" customFormat="1" spans="2:13">
+    <row r="119" spans="1:35" s="38" customFormat="1">
       <c r="B119" s="31" t="s">
         <v>87</v>
       </c>
@@ -9871,7 +10436,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="120" s="38" customFormat="1" spans="2:13">
+    <row r="120" spans="1:35" s="38" customFormat="1">
       <c r="B120" s="31" t="s">
         <v>90</v>
       </c>
@@ -9909,10 +10474,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="121" s="38" customFormat="1" spans="2:2">
+    <row r="121" spans="1:35" s="38" customFormat="1">
       <c r="B121" s="9"/>
     </row>
-    <row r="124" ht="13.5" spans="2:35">
+    <row r="124" spans="1:35" ht="13.5">
       <c r="B124" s="64"/>
       <c r="C124" s="27"/>
       <c r="D124" s="27"/>
@@ -9948,7 +10513,7 @@
       <c r="AH124" s="27"/>
       <c r="AI124" s="27"/>
     </row>
-    <row r="125" ht="13.5" spans="2:35">
+    <row r="125" spans="1:35" ht="13.5">
       <c r="B125" s="65"/>
       <c r="C125" s="27"/>
       <c r="D125" s="27"/>
@@ -9984,7 +10549,7 @@
       <c r="AH125" s="27"/>
       <c r="AI125" s="27"/>
     </row>
-    <row r="126" ht="14.25" spans="1:35">
+    <row r="126" spans="1:35" ht="14.25">
       <c r="A126" s="50" t="s">
         <v>59</v>
       </c>
@@ -10025,7 +10590,7 @@
       <c r="AH126" s="27"/>
       <c r="AI126" s="27"/>
     </row>
-    <row r="127" ht="13.5" spans="2:35">
+    <row r="127" spans="1:35" ht="13.5">
       <c r="B127" s="51" t="s">
         <v>249</v>
       </c>
@@ -10063,7 +10628,7 @@
       <c r="AH127" s="27"/>
       <c r="AI127" s="27"/>
     </row>
-    <row r="128" ht="13.5" spans="2:35">
+    <row r="128" spans="1:35" ht="13.5">
       <c r="B128" s="29" t="s">
         <v>64</v>
       </c>
@@ -10113,7 +10678,7 @@
       <c r="AH128" s="27"/>
       <c r="AI128" s="27"/>
     </row>
-    <row r="129" ht="13.5" spans="2:35">
+    <row r="129" spans="1:36" ht="13.5">
       <c r="B129" s="31" t="s">
         <v>82</v>
       </c>
@@ -10163,7 +10728,7 @@
       <c r="AH129" s="27"/>
       <c r="AI129" s="27"/>
     </row>
-    <row r="130" ht="13.5" spans="2:35">
+    <row r="130" spans="1:36" ht="13.5">
       <c r="B130" s="64"/>
       <c r="C130" s="27"/>
       <c r="D130" s="27"/>
@@ -10199,7 +10764,7 @@
       <c r="AH130" s="27"/>
       <c r="AI130" s="27"/>
     </row>
-    <row r="131" ht="13.5" spans="2:35">
+    <row r="131" spans="1:36" ht="13.5">
       <c r="B131" s="65"/>
       <c r="C131" s="27"/>
       <c r="D131" s="27"/>
@@ -10235,7 +10800,7 @@
       <c r="AH131" s="27"/>
       <c r="AI131" s="27"/>
     </row>
-    <row r="132" ht="13.5" spans="2:35">
+    <row r="132" spans="1:36" ht="13.5">
       <c r="B132" s="67"/>
       <c r="C132" s="27"/>
       <c r="D132" s="27"/>
@@ -10271,7 +10836,7 @@
       <c r="AH132" s="27"/>
       <c r="AI132" s="27"/>
     </row>
-    <row r="134" ht="14.25" spans="1:2">
+    <row r="134" spans="1:36" ht="14.25">
       <c r="A134" s="28" t="s">
         <v>59</v>
       </c>
@@ -10279,13 +10844,13 @@
         <v>252</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:36">
       <c r="A135" s="4"/>
       <c r="B135" s="65" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="136" spans="2:36">
+    <row r="136" spans="1:36">
       <c r="B136" s="11" t="s">
         <v>63</v>
       </c>
@@ -10390,7 +10955,7 @@
       </c>
       <c r="AJ136" s="29"/>
     </row>
-    <row r="137" spans="2:35">
+    <row r="137" spans="1:36">
       <c r="B137" s="31">
         <v>1</v>
       </c>
@@ -10494,7 +11059,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="138" s="45" customFormat="1" spans="2:35">
+    <row r="138" spans="1:36" s="45" customFormat="1">
       <c r="B138" s="68">
         <v>2</v>
       </c>
@@ -10598,7 +11163,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="139" spans="2:35">
+    <row r="139" spans="1:36">
       <c r="B139" s="31">
         <v>3</v>
       </c>
@@ -10702,7 +11267,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="140" s="45" customFormat="1" spans="2:35">
+    <row r="140" spans="1:36" s="45" customFormat="1">
       <c r="B140" s="68">
         <v>4</v>
       </c>
@@ -10806,7 +11371,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="141" spans="2:35">
+    <row r="141" spans="1:36">
       <c r="B141" s="31">
         <v>5</v>
       </c>
@@ -10910,7 +11475,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="142" spans="2:35">
+    <row r="142" spans="1:36">
       <c r="B142" s="31">
         <v>6</v>
       </c>
@@ -11014,7 +11579,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="143" spans="2:35">
+    <row r="143" spans="1:36">
       <c r="B143" s="31">
         <v>7</v>
       </c>
@@ -11118,7 +11683,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="144" spans="2:35">
+    <row r="144" spans="1:36">
       <c r="B144" s="31">
         <v>8</v>
       </c>
@@ -11222,7 +11787,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="145" spans="2:35">
+    <row r="145" spans="2:36">
       <c r="B145" s="31">
         <v>9</v>
       </c>
@@ -11326,7 +11891,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="146" spans="2:35">
+    <row r="146" spans="2:36">
       <c r="B146" s="31">
         <v>10</v>
       </c>
@@ -11430,7 +11995,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="147" spans="2:35">
+    <row r="147" spans="2:36">
       <c r="B147" s="31">
         <v>11</v>
       </c>
@@ -11534,7 +12099,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="148" spans="2:35">
+    <row r="148" spans="2:36">
       <c r="B148" s="31">
         <v>12</v>
       </c>
@@ -11638,7 +12203,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="149" spans="2:35">
+    <row r="149" spans="2:36">
       <c r="B149" s="31">
         <v>13</v>
       </c>
@@ -11742,7 +12307,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="150" spans="2:35">
+    <row r="150" spans="2:36">
       <c r="B150" s="31">
         <v>14</v>
       </c>
@@ -11846,7 +12411,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="151" spans="2:35">
+    <row r="151" spans="2:36">
       <c r="B151" s="31">
         <v>15</v>
       </c>
@@ -11950,7 +12515,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="2:35">
+    <row r="152" spans="2:36">
       <c r="B152" s="31">
         <v>390</v>
       </c>
@@ -12054,7 +12619,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="153" ht="12.75" spans="2:36">
+    <row r="153" spans="2:36" ht="12.75">
       <c r="B153" s="31">
         <v>443</v>
       </c>
@@ -12159,7 +12724,7 @@
       </c>
       <c r="AJ153" s="7"/>
     </row>
-    <row r="154" ht="12.75" spans="2:36">
+    <row r="154" spans="2:36" ht="12.75">
       <c r="B154" s="31">
         <v>446</v>
       </c>
@@ -12264,7 +12829,7 @@
       </c>
       <c r="AJ154" s="7"/>
     </row>
-    <row r="155" ht="13.5" spans="2:35">
+    <row r="155" spans="2:36" ht="13.5">
       <c r="B155" s="67"/>
       <c r="C155" s="27"/>
       <c r="D155" s="27"/>
@@ -12300,7 +12865,7 @@
       <c r="AH155" s="27"/>
       <c r="AI155" s="27"/>
     </row>
-    <row r="156" ht="13.5" spans="2:35">
+    <row r="156" spans="2:36" ht="13.5">
       <c r="B156" s="67"/>
       <c r="C156" s="27"/>
       <c r="D156" s="27"/>
@@ -12336,7 +12901,7 @@
       <c r="AH156" s="27"/>
       <c r="AI156" s="27"/>
     </row>
-    <row r="157" ht="13.5" spans="2:35">
+    <row r="157" spans="2:36" ht="13.5">
       <c r="B157" s="64"/>
       <c r="C157" s="27"/>
       <c r="D157" s="27"/>
@@ -12372,7 +12937,7 @@
       <c r="AH157" s="27"/>
       <c r="AI157" s="27"/>
     </row>
-    <row r="158" ht="13.5" spans="2:34">
+    <row r="158" spans="2:36" ht="13.5">
       <c r="B158" s="67"/>
       <c r="C158" s="27"/>
       <c r="D158" s="27"/>
@@ -12407,7 +12972,7 @@
       <c r="AG158" s="27"/>
       <c r="AH158" s="27"/>
     </row>
-    <row r="159" ht="13.5" spans="2:34">
+    <row r="159" spans="2:36" ht="13.5">
       <c r="B159" s="67"/>
       <c r="C159" s="27"/>
       <c r="D159" s="27"/>
@@ -12442,7 +13007,7 @@
       <c r="AG159" s="27"/>
       <c r="AH159" s="27"/>
     </row>
-    <row r="160" ht="13.5" spans="2:34">
+    <row r="160" spans="2:36" ht="13.5">
       <c r="B160" s="67"/>
       <c r="C160" s="27"/>
       <c r="D160" s="27"/>
@@ -12477,7 +13042,7 @@
       <c r="AG160" s="27"/>
       <c r="AH160" s="27"/>
     </row>
-    <row r="161" ht="13.5" spans="2:34">
+    <row r="161" spans="1:148" ht="13.5">
       <c r="B161" s="67"/>
       <c r="C161" s="27"/>
       <c r="D161" s="27"/>
@@ -12512,7 +13077,7 @@
       <c r="AG161" s="27"/>
       <c r="AH161" s="27"/>
     </row>
-    <row r="162" ht="14.25" spans="1:34">
+    <row r="162" spans="1:148" ht="14.25">
       <c r="A162" s="28" t="s">
         <v>59</v>
       </c>
@@ -12552,13 +13117,13 @@
       <c r="AG162" s="27"/>
       <c r="AH162" s="27"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:148">
       <c r="A163" s="4"/>
       <c r="B163" s="65" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="164" spans="2:148">
+    <row r="164" spans="1:148">
       <c r="B164" s="29" t="s">
         <v>64</v>
       </c>
@@ -12987,7 +13552,7 @@
       <c r="EQ164" s="29"/>
       <c r="ER164" s="29"/>
     </row>
-    <row r="165" spans="2:141">
+    <row r="165" spans="1:148">
       <c r="B165" s="31" t="s">
         <v>412</v>
       </c>
@@ -13405,7 +13970,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="166" s="45" customFormat="1" spans="2:141">
+    <row r="166" spans="1:148" s="45" customFormat="1">
       <c r="B166" s="68" t="s">
         <v>431</v>
       </c>
@@ -13823,7 +14388,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="167" spans="2:141">
+    <row r="167" spans="1:148">
       <c r="B167" s="31" t="s">
         <v>438</v>
       </c>
@@ -14241,7 +14806,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="168" spans="2:141">
+    <row r="168" spans="1:148">
       <c r="B168" s="31" t="s">
         <v>438</v>
       </c>
@@ -14659,7 +15224,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="169" spans="2:141">
+    <row r="169" spans="1:148">
       <c r="B169" s="31" t="s">
         <v>438</v>
       </c>
@@ -15077,7 +15642,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="170" spans="2:141">
+    <row r="170" spans="1:148">
       <c r="B170" s="31" t="s">
         <v>438</v>
       </c>
@@ -15495,7 +16060,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="171" spans="2:141">
+    <row r="171" spans="1:148">
       <c r="B171" s="31" t="s">
         <v>438</v>
       </c>
@@ -15913,7 +16478,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="172" spans="2:141">
+    <row r="172" spans="1:148">
       <c r="B172" s="31" t="s">
         <v>438</v>
       </c>
@@ -16331,7 +16896,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="173" s="46" customFormat="1" ht="13.5" spans="2:146">
+    <row r="173" spans="1:148" s="46" customFormat="1" ht="13.5">
       <c r="B173" s="31" t="s">
         <v>438</v>
       </c>
@@ -16754,7 +17319,7 @@
       <c r="EO173" s="1"/>
       <c r="EP173" s="1"/>
     </row>
-    <row r="174" s="46" customFormat="1" ht="13.5" spans="2:146">
+    <row r="174" spans="1:148" s="46" customFormat="1" ht="13.5">
       <c r="B174" s="31" t="s">
         <v>438</v>
       </c>
@@ -17177,7 +17742,7 @@
       <c r="EO174" s="1"/>
       <c r="EP174" s="1"/>
     </row>
-    <row r="175" s="46" customFormat="1" ht="13.5" spans="2:146">
+    <row r="175" spans="1:148" s="46" customFormat="1" ht="13.5">
       <c r="B175" s="31" t="s">
         <v>438</v>
       </c>
@@ -17600,7 +18165,7 @@
       <c r="EO175" s="1"/>
       <c r="EP175" s="1"/>
     </row>
-    <row r="176" s="46" customFormat="1" ht="13.5" spans="2:146">
+    <row r="176" spans="1:148" s="46" customFormat="1" ht="13.5">
       <c r="B176" s="31" t="s">
         <v>438</v>
       </c>
@@ -18023,7 +18588,7 @@
       <c r="EO176" s="1"/>
       <c r="EP176" s="1"/>
     </row>
-    <row r="177" s="46" customFormat="1" ht="13.5" spans="2:146">
+    <row r="177" spans="1:146" s="46" customFormat="1" ht="13.5">
       <c r="B177" s="31" t="s">
         <v>438</v>
       </c>
@@ -18446,7 +19011,7 @@
       <c r="EO177" s="1"/>
       <c r="EP177" s="1"/>
     </row>
-    <row r="178" s="46" customFormat="1" ht="13.5" spans="2:146">
+    <row r="178" spans="1:146" s="46" customFormat="1" ht="13.5">
       <c r="B178" s="31" t="s">
         <v>438</v>
       </c>
@@ -18873,7 +19438,7 @@
       <c r="EO178" s="1"/>
       <c r="EP178" s="1"/>
     </row>
-    <row r="179" s="46" customFormat="1" ht="13.5" spans="2:146">
+    <row r="179" spans="1:146" s="46" customFormat="1" ht="13.5">
       <c r="B179" s="31" t="s">
         <v>438</v>
       </c>
@@ -19296,7 +19861,7 @@
       <c r="EO179" s="1"/>
       <c r="EP179" s="1"/>
     </row>
-    <row r="180" s="46" customFormat="1" ht="13.5" spans="2:146">
+    <row r="180" spans="1:146" s="46" customFormat="1" ht="13.5">
       <c r="B180" s="31" t="s">
         <v>438</v>
       </c>
@@ -19719,7 +20284,7 @@
       <c r="EO180" s="1"/>
       <c r="EP180" s="1"/>
     </row>
-    <row r="181" s="46" customFormat="1" ht="13.5" spans="2:146">
+    <row r="181" spans="1:146" s="46" customFormat="1" ht="13.5">
       <c r="B181" s="31" t="s">
         <v>438</v>
       </c>
@@ -20142,7 +20707,7 @@
       <c r="EO181" s="1"/>
       <c r="EP181" s="1"/>
     </row>
-    <row r="182" s="46" customFormat="1" ht="13.5" spans="2:146">
+    <row r="182" spans="1:146" s="46" customFormat="1" ht="13.5">
       <c r="B182" s="31" t="s">
         <v>438</v>
       </c>
@@ -20565,7 +21130,7 @@
       <c r="EO182" s="1"/>
       <c r="EP182" s="1"/>
     </row>
-    <row r="183" s="46" customFormat="1" ht="13.5" spans="2:146">
+    <row r="183" spans="1:146" s="46" customFormat="1" ht="13.5">
       <c r="B183" s="31" t="s">
         <v>438</v>
       </c>
@@ -20988,7 +21553,7 @@
       <c r="EO183" s="1"/>
       <c r="EP183" s="1"/>
     </row>
-    <row r="184" s="47" customFormat="1" ht="13.5" spans="2:146">
+    <row r="184" spans="1:146" s="47" customFormat="1" ht="13.5">
       <c r="B184" s="68" t="s">
         <v>438</v>
       </c>
@@ -21411,7 +21976,7 @@
       <c r="EO184" s="45"/>
       <c r="EP184" s="45"/>
     </row>
-    <row r="185" s="46" customFormat="1" ht="13.5" spans="2:146">
+    <row r="185" spans="1:146" s="46" customFormat="1" ht="13.5">
       <c r="B185" s="31" t="s">
         <v>438</v>
       </c>
@@ -21834,7 +22399,7 @@
       <c r="EO185" s="1"/>
       <c r="EP185" s="1"/>
     </row>
-    <row r="191" ht="14.25" spans="1:131">
+    <row r="191" spans="1:146" ht="14.25">
       <c r="A191" s="28" t="s">
         <v>59</v>
       </c>
@@ -21843,13 +22408,13 @@
       </c>
       <c r="EA191" s="7"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:146">
       <c r="A192" s="4"/>
       <c r="B192" s="65" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="193" s="7" customFormat="1" ht="12.75" spans="2:33">
+    <row r="193" spans="2:33" s="7" customFormat="1" ht="12.75">
       <c r="B193" s="11" t="s">
         <v>63</v>
       </c>
@@ -21947,7 +22512,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="194" s="7" customFormat="1" ht="12.75" spans="2:33">
+    <row r="194" spans="2:33" s="7" customFormat="1" ht="12.75">
       <c r="B194" s="31">
         <v>1</v>
       </c>
@@ -22045,7 +22610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" s="48" customFormat="1" ht="12.75" spans="2:33">
+    <row r="195" spans="2:33" s="48" customFormat="1" ht="12.75">
       <c r="B195" s="68">
         <v>2</v>
       </c>
@@ -22143,7 +22708,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="196" s="7" customFormat="1" ht="12.75" spans="2:33">
+    <row r="196" spans="2:33" s="7" customFormat="1" ht="12.75">
       <c r="B196" s="31">
         <v>101</v>
       </c>
@@ -22241,7 +22806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" s="7" customFormat="1" ht="12.75" spans="2:33">
+    <row r="197" spans="2:33" s="7" customFormat="1" ht="12.75">
       <c r="B197" s="31">
         <v>102</v>
       </c>
@@ -22339,7 +22904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" s="7" customFormat="1" ht="12.75" spans="2:33">
+    <row r="198" spans="2:33" s="7" customFormat="1" ht="12.75">
       <c r="B198" s="31">
         <v>103</v>
       </c>
@@ -22437,7 +23002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" s="7" customFormat="1" ht="12.75" spans="2:33">
+    <row r="199" spans="2:33" s="7" customFormat="1" ht="12.75">
       <c r="B199" s="31">
         <v>104</v>
       </c>
@@ -22535,7 +23100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" s="7" customFormat="1" ht="12.75" spans="2:33">
+    <row r="200" spans="2:33" s="7" customFormat="1" ht="12.75">
       <c r="B200" s="31">
         <v>105</v>
       </c>
@@ -22633,7 +23198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" s="7" customFormat="1" ht="12.75" spans="2:33">
+    <row r="201" spans="2:33" s="7" customFormat="1" ht="12.75">
       <c r="B201" s="31">
         <v>106</v>
       </c>
@@ -22731,7 +23296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" s="7" customFormat="1" ht="12.75" spans="2:33">
+    <row r="202" spans="2:33" s="7" customFormat="1" ht="12.75">
       <c r="B202" s="31">
         <v>107</v>
       </c>
@@ -22829,7 +23394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" s="7" customFormat="1" ht="12.75" spans="2:33">
+    <row r="203" spans="2:33" s="7" customFormat="1" ht="12.75">
       <c r="B203" s="31">
         <v>108</v>
       </c>
@@ -22927,7 +23492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" s="7" customFormat="1" ht="12.75" spans="2:33">
+    <row r="204" spans="2:33" s="7" customFormat="1" ht="12.75">
       <c r="B204" s="31">
         <v>109</v>
       </c>
@@ -23025,7 +23590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" s="7" customFormat="1" ht="12.75" spans="2:33">
+    <row r="205" spans="2:33" s="7" customFormat="1" ht="12.75">
       <c r="B205" s="31">
         <v>110</v>
       </c>
@@ -23123,7 +23688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" s="7" customFormat="1" ht="12.75" spans="2:33">
+    <row r="206" spans="2:33" s="7" customFormat="1" ht="12.75">
       <c r="B206" s="31">
         <v>111</v>
       </c>
@@ -23221,7 +23786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" s="7" customFormat="1" ht="12.75" spans="2:33">
+    <row r="207" spans="2:33" s="7" customFormat="1" ht="12.75">
       <c r="B207" s="31">
         <v>112</v>
       </c>
@@ -23319,7 +23884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" s="7" customFormat="1" ht="12.75" spans="2:33">
+    <row r="208" spans="2:33" s="7" customFormat="1" ht="12.75">
       <c r="B208" s="31">
         <v>113</v>
       </c>
@@ -23417,7 +23982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" s="7" customFormat="1" ht="12.75" spans="2:33">
+    <row r="209" spans="1:142" s="7" customFormat="1" ht="12.75">
       <c r="B209" s="31">
         <v>114</v>
       </c>
@@ -23515,7 +24080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" s="7" customFormat="1" ht="12.75" spans="2:33">
+    <row r="210" spans="1:142" s="7" customFormat="1" ht="12.75">
       <c r="B210" s="31">
         <v>115</v>
       </c>
@@ -23613,7 +24178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" s="7" customFormat="1" ht="12.75" spans="2:33">
+    <row r="211" spans="1:142" s="7" customFormat="1" ht="12.75">
       <c r="B211" s="31">
         <v>116</v>
       </c>
@@ -23711,7 +24276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" s="7" customFormat="1" ht="12.75" spans="2:33">
+    <row r="212" spans="1:142" s="7" customFormat="1" ht="12.75">
       <c r="B212" s="31">
         <v>117</v>
       </c>
@@ -23809,7 +24374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" s="45" customFormat="1" spans="2:33">
+    <row r="213" spans="1:142" s="45" customFormat="1">
       <c r="B213" s="68">
         <v>215</v>
       </c>
@@ -23907,15 +24472,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" ht="12.75" spans="3:4">
+    <row r="214" spans="1:142" ht="12.75">
       <c r="C214" s="8"/>
       <c r="D214" s="8"/>
     </row>
-    <row r="215" ht="12.75" spans="3:4">
+    <row r="215" spans="1:142" ht="12.75">
       <c r="C215" s="8"/>
       <c r="D215" s="8"/>
     </row>
-    <row r="218" ht="14.25" spans="1:2">
+    <row r="218" spans="1:142" ht="14.25">
       <c r="A218" s="28" t="s">
         <v>59</v>
       </c>
@@ -23923,13 +24488,13 @@
         <v>555</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:142">
       <c r="A219" s="4"/>
       <c r="B219" s="65" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="220" spans="2:28">
+    <row r="220" spans="1:142">
       <c r="B220" s="11" t="s">
         <v>63</v>
       </c>
@@ -24012,7 +24577,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="221" ht="13.5" spans="1:142">
+    <row r="221" spans="1:142" ht="13.5">
       <c r="A221" s="46"/>
       <c r="B221" s="31">
         <v>118</v>
@@ -24210,7 +24775,7 @@
       <c r="EK221" s="46"/>
       <c r="EL221" s="46"/>
     </row>
-    <row r="222" s="45" customFormat="1" ht="13.5" spans="1:142">
+    <row r="222" spans="1:142" s="45" customFormat="1" ht="13.5">
       <c r="A222" s="47"/>
       <c r="B222" s="68">
         <v>119</v>
@@ -24408,7 +24973,7 @@
       <c r="EK222" s="47"/>
       <c r="EL222" s="47"/>
     </row>
-    <row r="223" ht="13.5" spans="1:142">
+    <row r="223" spans="1:142" ht="13.5">
       <c r="A223" s="46"/>
       <c r="B223" s="31">
         <v>120</v>
@@ -24606,7 +25171,7 @@
       <c r="EK223" s="46"/>
       <c r="EL223" s="46"/>
     </row>
-    <row r="224" ht="13.5" spans="1:142">
+    <row r="224" spans="1:142" ht="13.5">
       <c r="A224" s="46"/>
       <c r="B224" s="31">
         <v>121</v>
@@ -24804,7 +25369,7 @@
       <c r="EK224" s="46"/>
       <c r="EL224" s="46"/>
     </row>
-    <row r="225" ht="13.5" spans="1:142">
+    <row r="225" spans="1:142" ht="13.5">
       <c r="A225" s="46"/>
       <c r="B225" s="31">
         <v>122</v>
@@ -25002,7 +25567,7 @@
       <c r="EK225" s="46"/>
       <c r="EL225" s="46"/>
     </row>
-    <row r="226" ht="13.5" spans="1:142">
+    <row r="226" spans="1:142" ht="13.5">
       <c r="A226" s="46"/>
       <c r="B226" s="31">
         <v>123</v>
@@ -25200,7 +25765,7 @@
       <c r="EK226" s="46"/>
       <c r="EL226" s="46"/>
     </row>
-    <row r="227" ht="13.5" spans="1:142">
+    <row r="227" spans="1:142" ht="13.5">
       <c r="A227" s="46"/>
       <c r="B227" s="31">
         <v>124</v>
@@ -25398,7 +25963,7 @@
       <c r="EK227" s="46"/>
       <c r="EL227" s="46"/>
     </row>
-    <row r="228" ht="13.5" spans="1:142">
+    <row r="228" spans="1:142" ht="13.5">
       <c r="A228" s="46"/>
       <c r="B228" s="31">
         <v>125</v>
@@ -25596,7 +26161,7 @@
       <c r="EK228" s="46"/>
       <c r="EL228" s="46"/>
     </row>
-    <row r="229" ht="13.5" spans="1:142">
+    <row r="229" spans="1:142" ht="13.5">
       <c r="A229" s="46"/>
       <c r="B229" s="31">
         <v>126</v>
@@ -25794,7 +26359,7 @@
       <c r="EK229" s="46"/>
       <c r="EL229" s="46"/>
     </row>
-    <row r="230" ht="13.5" spans="1:142">
+    <row r="230" spans="1:142" ht="13.5">
       <c r="A230" s="46"/>
       <c r="B230" s="31">
         <v>127</v>
@@ -25992,7 +26557,7 @@
       <c r="EK230" s="46"/>
       <c r="EL230" s="46"/>
     </row>
-    <row r="231" ht="13.5" spans="1:142">
+    <row r="231" spans="1:142" ht="13.5">
       <c r="A231" s="46"/>
       <c r="B231" s="31">
         <v>128</v>
@@ -26190,7 +26755,7 @@
       <c r="EK231" s="46"/>
       <c r="EL231" s="46"/>
     </row>
-    <row r="232" ht="13.5" spans="1:142">
+    <row r="232" spans="1:142" ht="13.5">
       <c r="A232" s="46"/>
       <c r="B232" s="31">
         <v>129</v>
@@ -26388,7 +26953,7 @@
       <c r="EK232" s="46"/>
       <c r="EL232" s="46"/>
     </row>
-    <row r="233" ht="13.5" spans="1:142">
+    <row r="233" spans="1:142" ht="13.5">
       <c r="A233" s="46"/>
       <c r="B233" s="31">
         <v>130</v>
@@ -26586,7 +27151,7 @@
       <c r="EK233" s="46"/>
       <c r="EL233" s="46"/>
     </row>
-    <row r="234" ht="13.5" spans="1:142">
+    <row r="234" spans="1:142" ht="13.5">
       <c r="A234" s="46"/>
       <c r="B234" s="31">
         <v>160</v>
@@ -26784,7 +27349,7 @@
       <c r="EK234" s="46"/>
       <c r="EL234" s="46"/>
     </row>
-    <row r="235" ht="13.5" spans="1:142">
+    <row r="235" spans="1:142" ht="13.5">
       <c r="A235" s="46"/>
       <c r="B235" s="31">
         <v>161</v>
@@ -26982,7 +27547,7 @@
       <c r="EK235" s="46"/>
       <c r="EL235" s="46"/>
     </row>
-    <row r="236" ht="13.5" spans="1:142">
+    <row r="236" spans="1:142" ht="13.5">
       <c r="A236" s="46"/>
       <c r="B236" s="31">
         <v>162</v>
@@ -27180,7 +27745,7 @@
       <c r="EK236" s="46"/>
       <c r="EL236" s="46"/>
     </row>
-    <row r="237" ht="13.5" spans="1:142">
+    <row r="237" spans="1:142" ht="13.5">
       <c r="A237" s="46"/>
       <c r="B237" s="31">
         <v>163</v>
@@ -27378,7 +27943,7 @@
       <c r="EK237" s="46"/>
       <c r="EL237" s="46"/>
     </row>
-    <row r="238" ht="13.5" spans="1:142">
+    <row r="238" spans="1:142" ht="13.5">
       <c r="A238" s="46"/>
       <c r="B238" s="31">
         <v>164</v>
@@ -27576,7 +28141,7 @@
       <c r="EK238" s="46"/>
       <c r="EL238" s="46"/>
     </row>
-    <row r="239" ht="13.5" spans="1:142">
+    <row r="239" spans="1:142" ht="13.5">
       <c r="A239" s="46"/>
       <c r="B239" s="31">
         <v>165</v>
@@ -27774,7 +28339,7 @@
       <c r="EK239" s="46"/>
       <c r="EL239" s="46"/>
     </row>
-    <row r="240" s="45" customFormat="1" ht="13.5" spans="1:142">
+    <row r="240" spans="1:142" s="45" customFormat="1" ht="13.5">
       <c r="A240" s="47"/>
       <c r="B240" s="68">
         <v>166</v>
@@ -27972,7 +28537,7 @@
       <c r="EK240" s="47"/>
       <c r="EL240" s="47"/>
     </row>
-    <row r="247" ht="13.5" spans="1:239">
+    <row r="247" spans="1:239" ht="13.5">
       <c r="A247"/>
       <c r="B247" s="35"/>
       <c r="C247" s="39"/>
@@ -28213,7 +28778,7 @@
       <c r="ID247"/>
       <c r="IE247"/>
     </row>
-    <row r="248" ht="14.25" spans="1:239">
+    <row r="248" spans="1:239" ht="14.25">
       <c r="A248" s="2" t="s">
         <v>59</v>
       </c>
@@ -28458,7 +29023,7 @@
       <c r="ID248"/>
       <c r="IE248"/>
     </row>
-    <row r="249" ht="13.5" spans="1:239">
+    <row r="249" spans="1:239" ht="13.5">
       <c r="A249"/>
       <c r="B249" s="51" t="s">
         <v>591</v>
@@ -28701,7 +29266,7 @@
       <c r="ID249"/>
       <c r="IE249"/>
     </row>
-    <row r="250" customFormat="1" ht="13.5" spans="2:53">
+    <row r="250" spans="1:239" customFormat="1" ht="14.25">
       <c r="B250" s="11" t="s">
         <v>63</v>
       </c>
@@ -28857,15 +29422,15 @@
       </c>
       <c r="BA250" s="7"/>
     </row>
-    <row r="251" customFormat="1" ht="13.5" spans="2:53">
+    <row r="251" spans="1:239" customFormat="1" ht="14.25">
       <c r="B251" s="13">
         <v>15</v>
       </c>
       <c r="C251" s="41">
-        <v>43160.5594097222</v>
+        <v>43160.559409722198</v>
       </c>
       <c r="D251" s="41">
-        <v>43160.5594097222</v>
+        <v>43160.559409722198</v>
       </c>
       <c r="E251" s="13">
         <v>0</v>
@@ -29013,15 +29578,15 @@
       </c>
       <c r="BA251" s="7"/>
     </row>
-    <row r="252" s="44" customFormat="1" ht="13.5" spans="2:53">
+    <row r="252" spans="1:239" s="44" customFormat="1" ht="14.25">
       <c r="B252" s="68" t="s">
         <v>634</v>
       </c>
       <c r="C252" s="70">
-        <v>43160.5611226852</v>
+        <v>43160.561122685198</v>
       </c>
       <c r="D252" s="70">
-        <v>43160.5611226852</v>
+        <v>43160.561122685198</v>
       </c>
       <c r="E252" s="68">
         <v>0</v>
@@ -29169,15 +29734,15 @@
       </c>
       <c r="BA252" s="48"/>
     </row>
-    <row r="253" customFormat="1" ht="13.5" spans="2:53">
+    <row r="253" spans="1:239" customFormat="1" ht="14.25">
       <c r="B253" s="13">
         <v>18</v>
       </c>
       <c r="C253" s="41">
-        <v>43160.5626157407</v>
+        <v>43160.562615740702</v>
       </c>
       <c r="D253" s="41">
-        <v>43160.5626157407</v>
+        <v>43160.562615740702</v>
       </c>
       <c r="E253" s="13">
         <v>0</v>
@@ -29325,15 +29890,15 @@
       </c>
       <c r="BA253" s="7"/>
     </row>
-    <row r="254" customFormat="1" ht="13.5" spans="2:53">
+    <row r="254" spans="1:239" customFormat="1" ht="14.25">
       <c r="B254" s="13">
         <v>39</v>
       </c>
       <c r="C254" s="41">
-        <v>43200.4988425926</v>
+        <v>43200.498842592599</v>
       </c>
       <c r="D254" s="41">
-        <v>43200.4988425926</v>
+        <v>43200.498842592599</v>
       </c>
       <c r="E254" s="13">
         <v>0</v>
@@ -29481,15 +30046,15 @@
       </c>
       <c r="BA254" s="7"/>
     </row>
-    <row r="255" customFormat="1" ht="13.5" spans="2:53">
+    <row r="255" spans="1:239" customFormat="1" ht="14.25">
       <c r="B255" s="13">
         <v>40</v>
       </c>
       <c r="C255" s="41">
-        <v>43200.5036921296</v>
+        <v>43200.503692129598</v>
       </c>
       <c r="D255" s="41">
-        <v>43200.5036921296</v>
+        <v>43200.503692129598</v>
       </c>
       <c r="E255" s="13">
         <v>0</v>
@@ -29637,15 +30202,15 @@
       </c>
       <c r="BA255" s="7"/>
     </row>
-    <row r="256" customFormat="1" ht="13.5" spans="2:53">
+    <row r="256" spans="1:239" customFormat="1" ht="14.25">
       <c r="B256" s="13">
         <v>41</v>
       </c>
       <c r="C256" s="41">
-        <v>43200.5039351852</v>
+        <v>43200.503935185203</v>
       </c>
       <c r="D256" s="41">
-        <v>43200.5039351852</v>
+        <v>43200.503935185203</v>
       </c>
       <c r="E256" s="13">
         <v>0</v>
@@ -29793,15 +30358,15 @@
       </c>
       <c r="BA256" s="7"/>
     </row>
-    <row r="257" customFormat="1" ht="13.5" spans="2:53">
+    <row r="257" spans="1:239" customFormat="1" ht="14.25">
       <c r="B257" s="13">
         <v>56</v>
       </c>
       <c r="C257" s="41">
-        <v>43208.3265393519</v>
+        <v>43208.326539351903</v>
       </c>
       <c r="D257" s="41">
-        <v>43208.3265393519</v>
+        <v>43208.326539351903</v>
       </c>
       <c r="E257" s="13">
         <v>0</v>
@@ -29949,15 +30514,15 @@
       </c>
       <c r="BA257" s="7"/>
     </row>
-    <row r="258" s="44" customFormat="1" ht="13.5" spans="2:53">
+    <row r="258" spans="1:239" s="44" customFormat="1" ht="14.25">
       <c r="B258" s="68" t="s">
         <v>638</v>
       </c>
       <c r="C258" s="70">
-        <v>43209.2697569444</v>
+        <v>43209.269756944399</v>
       </c>
       <c r="D258" s="70">
-        <v>43210.2938425926</v>
+        <v>43210.293842592597</v>
       </c>
       <c r="E258" s="68">
         <v>0</v>
@@ -30105,15 +30670,15 @@
       </c>
       <c r="BA258" s="48"/>
     </row>
-    <row r="259" customFormat="1" ht="13.5" spans="2:53">
+    <row r="259" spans="1:239" customFormat="1" ht="14.25">
       <c r="B259" s="13" t="s">
         <v>588</v>
       </c>
       <c r="C259" s="41">
-        <v>43273.1537307273</v>
+        <v>43273.153730727303</v>
       </c>
       <c r="D259" s="41">
-        <v>43273.1537307273</v>
+        <v>43273.153730727303</v>
       </c>
       <c r="E259" s="13">
         <v>0</v>
@@ -30261,7 +30826,7 @@
       </c>
       <c r="BA259" s="7"/>
     </row>
-    <row r="260" ht="13.5" spans="1:239">
+    <row r="260" spans="1:239" ht="13.5">
       <c r="A260"/>
       <c r="B260" s="35"/>
       <c r="C260" s="39"/>
@@ -30502,7 +31067,7 @@
       <c r="ID260"/>
       <c r="IE260"/>
     </row>
-    <row r="261" ht="13.5" spans="1:239">
+    <row r="261" spans="1:239" ht="13.5">
       <c r="A261"/>
       <c r="B261" s="35"/>
       <c r="C261" s="39"/>
@@ -30743,7 +31308,7 @@
       <c r="ID261"/>
       <c r="IE261"/>
     </row>
-    <row r="262" ht="13.5" spans="1:239">
+    <row r="262" spans="1:239" ht="13.5">
       <c r="A262"/>
       <c r="B262" s="35"/>
       <c r="C262" s="39"/>
@@ -30984,7 +31549,7 @@
       <c r="ID262"/>
       <c r="IE262"/>
     </row>
-    <row r="263" ht="13.5" spans="1:239">
+    <row r="263" spans="1:239" ht="13.5">
       <c r="A263"/>
       <c r="B263" s="35"/>
       <c r="C263" s="39"/>
@@ -31225,7 +31790,7 @@
       <c r="ID263"/>
       <c r="IE263"/>
     </row>
-    <row r="264" ht="13.5" spans="1:239">
+    <row r="264" spans="1:239" ht="13.5">
       <c r="A264"/>
       <c r="B264" s="35"/>
       <c r="C264" s="39"/>
@@ -31466,7 +32031,7 @@
       <c r="ID264"/>
       <c r="IE264"/>
     </row>
-    <row r="265" ht="13.5" spans="1:239">
+    <row r="265" spans="1:239" ht="13.5">
       <c r="A265"/>
       <c r="B265" s="35"/>
       <c r="C265" s="39"/>
@@ -31707,7 +32272,7 @@
       <c r="ID265"/>
       <c r="IE265"/>
     </row>
-    <row r="266" ht="14.25" spans="1:239">
+    <row r="266" spans="1:239" ht="14.25">
       <c r="A266" s="2" t="s">
         <v>59</v>
       </c>
@@ -31952,7 +32517,7 @@
       <c r="ID266"/>
       <c r="IE266"/>
     </row>
-    <row r="267" ht="13.5" spans="1:239">
+    <row r="267" spans="1:239" ht="13.5">
       <c r="A267"/>
       <c r="B267" s="51" t="s">
         <v>641</v>
@@ -32195,7 +32760,7 @@
       <c r="ID267"/>
       <c r="IE267"/>
     </row>
-    <row r="268" customFormat="1" ht="13.5" spans="2:95">
+    <row r="268" spans="1:239" customFormat="1" ht="13.5">
       <c r="B268" s="11" t="s">
         <v>63</v>
       </c>
@@ -32479,15 +33044,15 @@
         <v>677</v>
       </c>
     </row>
-    <row r="269" customFormat="1" ht="13.5" spans="2:95">
+    <row r="269" spans="1:239" customFormat="1" ht="13.5">
       <c r="B269" s="13">
         <v>5</v>
       </c>
       <c r="C269" s="41">
-        <v>43211.3841666667</v>
+        <v>43211.384166666699</v>
       </c>
       <c r="D269" s="41">
-        <v>43211.4412847222</v>
+        <v>43211.441284722197</v>
       </c>
       <c r="E269" s="13">
         <v>0</v>
@@ -32763,15 +33328,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="270" customFormat="1" ht="13.5" spans="2:95">
+    <row r="270" spans="1:239" customFormat="1" ht="13.5">
       <c r="B270" s="13">
         <v>8</v>
       </c>
       <c r="C270" s="41">
-        <v>43213.3396759259</v>
+        <v>43213.339675925898</v>
       </c>
       <c r="D270" s="41">
-        <v>43213.3396759259</v>
+        <v>43213.339675925898</v>
       </c>
       <c r="E270" s="13">
         <v>0</v>
@@ -33047,15 +33612,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="271" customFormat="1" ht="13.5" spans="2:95">
+    <row r="271" spans="1:239" customFormat="1" ht="13.5">
       <c r="B271" s="13">
         <v>9</v>
       </c>
       <c r="C271" s="41">
-        <v>43213.3396759259</v>
+        <v>43213.339675925898</v>
       </c>
       <c r="D271" s="41">
-        <v>43213.3396759259</v>
+        <v>43213.339675925898</v>
       </c>
       <c r="E271" s="13">
         <v>0</v>
@@ -33331,15 +33896,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="272" customFormat="1" ht="13.5" spans="2:95">
+    <row r="272" spans="1:239" customFormat="1" ht="13.5">
       <c r="B272" s="13">
         <v>11</v>
       </c>
       <c r="C272" s="41">
-        <v>43213.401400463</v>
+        <v>43213.401400463001</v>
       </c>
       <c r="D272" s="41">
-        <v>43213.401400463</v>
+        <v>43213.401400463001</v>
       </c>
       <c r="E272" s="13">
         <v>0</v>
@@ -33615,15 +34180,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="273" customFormat="1" ht="13.5" spans="2:95">
+    <row r="273" spans="1:238" customFormat="1" ht="13.5">
       <c r="B273" s="13">
         <v>12</v>
       </c>
       <c r="C273" s="41">
-        <v>43213.401400463</v>
+        <v>43213.401400463001</v>
       </c>
       <c r="D273" s="41">
-        <v>43213.4074305556</v>
+        <v>43213.407430555599</v>
       </c>
       <c r="E273" s="13">
         <v>0</v>
@@ -33899,16 +34464,16 @@
         <v>84</v>
       </c>
     </row>
-    <row r="274" s="45" customFormat="1" ht="13.5" spans="1:238">
+    <row r="274" spans="1:238" s="45" customFormat="1" ht="13.5">
       <c r="A274" s="44"/>
       <c r="B274" s="68">
         <v>58</v>
       </c>
       <c r="C274" s="70">
-        <v>43230.418912037</v>
+        <v>43230.418912036999</v>
       </c>
       <c r="D274" s="70">
-        <v>43230.4553819444</v>
+        <v>43230.455381944397</v>
       </c>
       <c r="E274" s="68">
         <v>0</v>
@@ -34327,15 +34892,15 @@
       <c r="IC274" s="44"/>
       <c r="ID274" s="44"/>
     </row>
-    <row r="275" s="45" customFormat="1" spans="2:95">
+    <row r="275" spans="1:238" s="45" customFormat="1">
       <c r="B275" s="68">
         <v>60</v>
       </c>
       <c r="C275" s="70">
-        <v>43234.3621527778</v>
+        <v>43234.362152777801</v>
       </c>
       <c r="D275" s="70">
-        <v>43234.3621527778</v>
+        <v>43234.362152777801</v>
       </c>
       <c r="E275" s="68">
         <v>0</v>
@@ -34611,611 +35176,610 @@
         <v>84</v>
       </c>
     </row>
-    <row r="276" ht="12.75" spans="3:4">
+    <row r="276" spans="1:238" ht="12.75">
       <c r="C276" s="8"/>
       <c r="D276" s="8"/>
     </row>
-    <row r="277" ht="12.75" spans="3:4">
+    <row r="277" spans="1:238" ht="12.75">
       <c r="C277" s="8"/>
       <c r="D277" s="8"/>
     </row>
-    <row r="278" ht="12.75" spans="3:4">
+    <row r="278" spans="1:238" ht="12.75">
       <c r="C278" s="8"/>
       <c r="D278" s="8"/>
     </row>
-    <row r="279" customFormat="1" ht="13.5"/>
-    <row r="280" customFormat="1" ht="13.5"/>
-    <row r="281" customFormat="1" ht="13.5"/>
-    <row r="282" customFormat="1" ht="13.5"/>
-    <row r="283" customFormat="1" ht="13.5"/>
-    <row r="284" customFormat="1" ht="13.5"/>
-    <row r="285" customFormat="1" ht="13.5"/>
-    <row r="286" customFormat="1" ht="13.5"/>
-    <row r="287" customFormat="1" ht="13.5"/>
-    <row r="288" customFormat="1" ht="13.5"/>
+    <row r="279" spans="1:238" customFormat="1" ht="13.5"/>
+    <row r="280" spans="1:238" customFormat="1" ht="13.5"/>
+    <row r="281" spans="1:238" customFormat="1" ht="13.5"/>
+    <row r="282" spans="1:238" customFormat="1" ht="13.5"/>
+    <row r="283" spans="1:238" customFormat="1" ht="13.5"/>
+    <row r="284" spans="1:238" customFormat="1" ht="13.5"/>
+    <row r="285" spans="1:238" customFormat="1" ht="13.5"/>
+    <row r="286" spans="1:238" customFormat="1" ht="13.5"/>
+    <row r="287" spans="1:238" customFormat="1" ht="13.5"/>
+    <row r="288" spans="1:238" customFormat="1" ht="13.5"/>
     <row r="289" customFormat="1" ht="13.5"/>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="G152">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="32" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B164:E164">
-    <cfRule type="cellIs" dxfId="0" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="512" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F164">
-    <cfRule type="cellIs" dxfId="0" priority="513" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="513" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G164">
-    <cfRule type="cellIs" dxfId="0" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="511" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H164:L164">
-    <cfRule type="cellIs" dxfId="0" priority="507" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="507" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M164:EK164">
-    <cfRule type="cellIs" dxfId="0" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="360" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EL164">
-    <cfRule type="cellIs" dxfId="0" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="363" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EM164">
-    <cfRule type="cellIs" dxfId="0" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="364" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EN164">
-    <cfRule type="cellIs" dxfId="0" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="365" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EO164">
-    <cfRule type="cellIs" dxfId="0" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="366" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EP164">
-    <cfRule type="cellIs" dxfId="0" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="367" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EQ164">
-    <cfRule type="cellIs" dxfId="0" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="368" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="ER164">
-    <cfRule type="cellIs" dxfId="0" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="369" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EM192">
-    <cfRule type="cellIs" dxfId="0" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="197" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B193">
-    <cfRule type="cellIs" dxfId="0" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="517" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C193:AG193">
-    <cfRule type="cellIs" dxfId="0" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="516" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U194">
-    <cfRule type="cellIs" dxfId="0" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="162" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA194">
-    <cfRule type="cellIs" dxfId="0" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="161" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R195">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="6" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T195">
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="35" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U195">
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="34" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA195:AE195">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="26" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B213">
-    <cfRule type="cellIs" dxfId="0" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="68" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C213">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="7" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D213">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="8" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E213:R213">
-    <cfRule type="cellIs" dxfId="0" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="66" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S213">
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="38" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T213">
-    <cfRule type="cellIs" dxfId="1" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="42" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U213">
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="30" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V213">
-    <cfRule type="cellIs" dxfId="0" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="64" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W213">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="61" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X213:AG213">
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="62" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B220">
-    <cfRule type="cellIs" dxfId="0" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="527" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C220:AA220">
-    <cfRule type="cellIs" dxfId="0" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="526" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB220">
-    <cfRule type="cellIs" dxfId="0" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="154" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M222">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="33" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U240">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="37" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J253">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU258:AV258">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="3" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F259">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="5" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L259">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="19" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M259">
-    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="20" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N259">
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="18" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O259:T259">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="9" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U259:AT259">
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="14" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU259:AV259">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="2" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW259">
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="13" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX259">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="12" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY259">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="11" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ259">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="10" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL260">
-    <cfRule type="cellIs" dxfId="1" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="106" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C274">
-    <cfRule type="cellIs" dxfId="1" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="80" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA274">
-    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="23" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF274">
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="22" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK274">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="29" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL274">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="27" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV274">
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="24" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C275">
-    <cfRule type="cellIs" dxfId="1" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="78" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK275">
-    <cfRule type="cellIs" dxfId="0" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="81" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL275">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="17" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM275">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="16" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV275">
-    <cfRule type="cellIs" dxfId="1" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="82" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B274:B275">
-    <cfRule type="cellIs" dxfId="1" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="91" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D274:D275">
-    <cfRule type="cellIs" dxfId="1" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="79" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F194:F212">
-    <cfRule type="cellIs" dxfId="0" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="195" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G153:G154">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="31" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I194:I212">
-    <cfRule type="cellIs" dxfId="0" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="192" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K221:K240">
-    <cfRule type="cellIs" dxfId="1" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="40" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L221:L240">
-    <cfRule type="cellIs" dxfId="0" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="158" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L251:L258">
-    <cfRule type="cellIs" dxfId="0" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="103" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M229:M236">
-    <cfRule type="cellIs" dxfId="0" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="522" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M237:M240">
-    <cfRule type="cellIs" dxfId="0" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="521" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M251:M258">
-    <cfRule type="cellIs" dxfId="0" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="104" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N221:N236">
-    <cfRule type="cellIs" dxfId="0" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="520" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N237:N240">
-    <cfRule type="cellIs" dxfId="0" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="519" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N251:N258">
-    <cfRule type="cellIs" dxfId="0" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="102" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O194:O212">
-    <cfRule type="cellIs" dxfId="0" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="189" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P194:P212">
-    <cfRule type="cellIs" dxfId="0" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="186" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q194:Q212">
-    <cfRule type="cellIs" dxfId="0" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="183" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S194:S212">
-    <cfRule type="cellIs" dxfId="0" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="159" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U196:U212">
-    <cfRule type="cellIs" dxfId="0" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="165" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U221:U239">
-    <cfRule type="cellIs" dxfId="0" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="196" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X153:X154">
-    <cfRule type="cellIs" dxfId="0" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="93" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y153:Y154">
-    <cfRule type="cellIs" dxfId="0" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="92" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA196:AA212">
-    <cfRule type="cellIs" dxfId="0" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="168" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB221:AB240">
-    <cfRule type="cellIs" dxfId="0" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="153" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ269:AJ273">
-    <cfRule type="cellIs" dxfId="0" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="101" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK269:AK273">
-    <cfRule type="cellIs" dxfId="0" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="100" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL269:AL273">
-    <cfRule type="cellIs" dxfId="0" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="98" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM269:AM273">
-    <cfRule type="cellIs" dxfId="0" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="99" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:IE90 A155:IE161 A99:IE151 A152:F152 AK153:IE154 A153:A154 H152:IE152 EM186 ES186:IE186 EM187:IE191 EN192:IE192 A241:IE244 EM213:IE240 EQ169:IE172 C162:IE162 A217:EL217 AC220:EL220 C218:EL219 AO276:ID278 A290:IE1048576 AN277:AN278 E276:AK278 AL277:AL278 CR275:ID275 I246 A275 A245:G246 A276:B278 H245:I245 J245:IE246 AM276:AM278">
-    <cfRule type="cellIs" dxfId="0" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="578" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91:BV98">
-    <cfRule type="cellIs" dxfId="0" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="576" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B153:B154 E153:F154 H153:W154 Z153:AI154">
-    <cfRule type="cellIs" dxfId="0" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="97" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153:D154">
-    <cfRule type="cellIs" dxfId="0" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="94" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A162:B163">
-    <cfRule type="cellIs" dxfId="0" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="518" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B165:EK185">
-    <cfRule type="cellIs" dxfId="0" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="199" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="EN186:ER186 EL165:EP185">
-    <cfRule type="cellIs" dxfId="0" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="198" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A191:B192">
-    <cfRule type="cellIs" dxfId="0" priority="514" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="514" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B194:B212 AG194:AG212 J194:N212 E194:E212 G194:H212">
-    <cfRule type="cellIs" dxfId="0" priority="515" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="515" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C194:D212">
-    <cfRule type="cellIs" dxfId="0" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="358" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R194 R196:R212">
-    <cfRule type="cellIs" dxfId="0" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="180" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T194 T196:T212">
-    <cfRule type="cellIs" dxfId="0" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="177" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V194:Z212">
-    <cfRule type="cellIs" dxfId="0" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="174" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB194:AF194 AF195 AB196:AF212">
-    <cfRule type="cellIs" dxfId="0" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="171" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A218:B219">
-    <cfRule type="cellIs" dxfId="0" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="524" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B221:F240 V221:AA240 O221:T240">
-    <cfRule type="cellIs" dxfId="0" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="525" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G221:J240">
-    <cfRule type="cellIs" dxfId="1" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="39" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M221 M223:M228">
-    <cfRule type="cellIs" dxfId="0" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="523" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A247:IE250 A274 CR274:ID274 AN269:IE269 A269:AI273 AW258:IE258 O258:AT258 O251:IE257 AO270:IE273 AN270:AN274 J254:J258 J251:J252 A251:I258 K251:K258 A260:IE268">
-    <cfRule type="cellIs" dxfId="1" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="105" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A259:E259 BA259:IE259 G259:K259">
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="21" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E274:N275">
-    <cfRule type="cellIs" dxfId="1" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="90" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O274:Z274 AG274:AJ274 AB274:AE274 O275:AJ275 AO274:BT274 AM274 AN275:BU275 BW275:CQ275 BX274:CQ274">
-    <cfRule type="cellIs" dxfId="1" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="89" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW274 BU274">
-    <cfRule type="cellIs" dxfId="1" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="25" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
@@ -35225,7 +35789,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:2">
+    <row r="1" spans="1:3" ht="12" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>688</v>
       </c>
@@ -35233,7 +35797,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:2">
+    <row r="3" spans="1:3" ht="12" customHeight="1">
       <c r="A3" s="17" t="s">
         <v>690</v>
       </c>
@@ -35241,7 +35805,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:2">
+    <row r="4" spans="1:3" ht="14.25">
       <c r="A4" s="17" t="s">
         <v>690</v>
       </c>
@@ -35249,7 +35813,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:2">
+    <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="17" t="s">
         <v>690</v>
       </c>
@@ -35257,7 +35821,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:3">
+    <row r="8" spans="1:3" ht="14.25">
       <c r="A8" s="17" t="s">
         <v>694</v>
       </c>
@@ -35268,7 +35832,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:2">
+    <row r="9" spans="1:3" ht="14.25">
       <c r="A9" s="17" t="s">
         <v>690</v>
       </c>
@@ -35276,7 +35840,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:2">
+    <row r="10" spans="1:3" ht="14.25">
       <c r="A10" s="17" t="s">
         <v>697</v>
       </c>
@@ -35284,7 +35848,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="12" spans="1:3" ht="14.25">
       <c r="A12" s="17" t="s">
         <v>694</v>
       </c>
@@ -35295,25 +35859,23 @@
         <v>699</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="13" spans="1:3" ht="14.25">
       <c r="A13" s="17" t="s">
         <v>690</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="C13" s="15"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="14.25" spans="1:3">
+    </row>
+    <row r="14" spans="1:3" ht="14.25">
       <c r="A14" s="17" t="s">
         <v>697</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>698</v>
       </c>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="14.25" spans="1:3">
+    </row>
+    <row r="16" spans="1:3" ht="14.25">
       <c r="A16" s="17" t="s">
         <v>694</v>
       </c>
@@ -35324,25 +35886,23 @@
         <v>501</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="17" spans="1:3" ht="14.25">
       <c r="A17" s="17" t="s">
         <v>690</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="14.25" spans="1:3">
+    </row>
+    <row r="18" spans="1:3" ht="14.25">
       <c r="A18" s="17" t="s">
         <v>697</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>698</v>
       </c>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:3">
+    </row>
+    <row r="20" spans="1:3" ht="14.25">
       <c r="A20" s="17" t="s">
         <v>694</v>
       </c>
@@ -35351,7 +35911,7 @@
       </c>
       <c r="C20"/>
     </row>
-    <row r="21" ht="14.25" spans="1:2">
+    <row r="21" spans="1:3" ht="14.25">
       <c r="A21" s="17" t="s">
         <v>690</v>
       </c>
@@ -35359,7 +35919,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:2">
+    <row r="22" spans="1:3" ht="14.25">
       <c r="A22" s="17" t="s">
         <v>697</v>
       </c>
@@ -35367,7 +35927,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:2">
+    <row r="25" spans="1:3" ht="14.25">
       <c r="A25" s="17" t="s">
         <v>690</v>
       </c>
@@ -35375,7 +35935,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:2">
+    <row r="26" spans="1:3" ht="14.25">
       <c r="A26" s="17" t="s">
         <v>697</v>
       </c>
@@ -35383,7 +35943,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:2">
+    <row r="28" spans="1:3" ht="14.25">
       <c r="A28" s="17" t="s">
         <v>688</v>
       </c>
@@ -35391,7 +35951,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:2">
+    <row r="30" spans="1:3" ht="14.25">
       <c r="A30" s="17" t="s">
         <v>690</v>
       </c>
@@ -35399,7 +35959,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:3">
+    <row r="32" spans="1:3" ht="14.25">
       <c r="A32" s="17" t="s">
         <v>694</v>
       </c>
@@ -35410,7 +35970,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:2">
+    <row r="33" spans="1:4" ht="14.25">
       <c r="A33" s="17" t="s">
         <v>697</v>
       </c>
@@ -35418,7 +35978,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:2">
+    <row r="35" spans="1:4" ht="14.25">
       <c r="A35" s="17" t="s">
         <v>690</v>
       </c>
@@ -35426,12 +35986,12 @@
         <v>702</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:1">
+    <row r="36" spans="1:4" ht="14.25">
       <c r="A36" s="17" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:2">
+    <row r="37" spans="1:4" ht="14.25">
       <c r="A37" s="17" t="s">
         <v>697</v>
       </c>
@@ -35439,22 +35999,22 @@
         <v>710</v>
       </c>
     </row>
-    <row r="39" customFormat="1" ht="13.5" spans="3:4">
+    <row r="39" spans="1:4" customFormat="1" ht="13.5">
       <c r="C39" s="15"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" customFormat="1" ht="13.5" spans="3:4">
+    <row r="40" spans="1:4" customFormat="1" ht="13.5">
       <c r="C40" s="15"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" customFormat="1" ht="13.5"/>
-    <row r="42" customFormat="1" ht="13.5"/>
-    <row r="43" customFormat="1" ht="13.5"/>
-    <row r="44" customFormat="1" ht="13.5"/>
-    <row r="45" customFormat="1" ht="13.5"/>
-    <row r="46" customFormat="1" ht="13.5"/>
-    <row r="47" customFormat="1" ht="13.5"/>
-    <row r="48" customFormat="1" ht="13.5"/>
+    <row r="41" spans="1:4" customFormat="1" ht="13.5"/>
+    <row r="42" spans="1:4" customFormat="1" ht="13.5"/>
+    <row r="43" spans="1:4" customFormat="1" ht="13.5"/>
+    <row r="44" spans="1:4" customFormat="1" ht="13.5"/>
+    <row r="45" spans="1:4" customFormat="1" ht="13.5"/>
+    <row r="46" spans="1:4" customFormat="1" ht="13.5"/>
+    <row r="47" spans="1:4" customFormat="1" ht="13.5"/>
+    <row r="48" spans="1:4" customFormat="1" ht="13.5"/>
     <row r="49" customFormat="1" ht="13.5"/>
     <row r="50" customFormat="1" ht="13.5"/>
     <row r="51" customFormat="1" ht="13.5"/>
@@ -35472,19 +36032,18 @@
     <row r="63" customFormat="1" ht="13.5"/>
     <row r="64" customFormat="1" ht="13.5"/>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1" display="楊皖軍" tooltip="http://127.0.0.1:8000/contract/contractor/2/detail/"/>
-    <hyperlink ref="C16" r:id="rId2" display="契約者０１８" tooltip="http://127.0.0.1:8000/contract/contractor/118/detail/"/>
+    <hyperlink ref="C8" r:id="rId1" tooltip="http://127.0.0.1:8000/contract/contractor/2/detail/"/>
+    <hyperlink ref="C16" r:id="rId2" tooltip="http://127.0.0.1:8000/contract/contractor/118/detail/"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CY45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -35507,7 +36066,7 @@
     <col min="74" max="74" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:103">
+    <row r="1" spans="1:103" s="1" customFormat="1">
       <c r="B1" s="5"/>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -35544,7 +36103,7 @@
       <c r="AI1" s="27"/>
       <c r="CY1"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:35">
+    <row r="3" spans="1:103" s="1" customFormat="1" ht="14.25">
       <c r="A3" s="28" t="s">
         <v>59</v>
       </c>
@@ -35585,13 +36144,13 @@
       <c r="AH3" s="27"/>
       <c r="AI3" s="27"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:2">
+    <row r="4" spans="1:103" s="1" customFormat="1" ht="12">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="12" spans="1:14">
+    <row r="5" spans="1:103" s="1" customFormat="1" ht="12">
       <c r="A5" s="4"/>
       <c r="B5" s="11" t="s">
         <v>63</v>
@@ -35633,7 +36192,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="12" spans="1:14">
+    <row r="6" spans="1:103" s="1" customFormat="1" ht="12">
       <c r="A6" s="4"/>
       <c r="B6" s="13">
         <v>1216</v>
@@ -35675,7 +36234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="12" spans="1:14">
+    <row r="7" spans="1:103" s="1" customFormat="1" ht="12">
       <c r="A7" s="4"/>
       <c r="B7" s="13">
         <v>1217</v>
@@ -35717,7 +36276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="12" spans="1:14">
+    <row r="8" spans="1:103" s="1" customFormat="1" ht="12">
       <c r="A8" s="4"/>
       <c r="B8" s="13">
         <v>1218</v>
@@ -35759,7 +36318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="12" spans="1:14">
+    <row r="9" spans="1:103" s="1" customFormat="1" ht="12">
       <c r="A9" s="4"/>
       <c r="B9" s="13">
         <v>1386</v>
@@ -35801,7 +36360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="12" spans="1:14">
+    <row r="10" spans="1:103" s="1" customFormat="1" ht="12">
       <c r="A10" s="4"/>
       <c r="B10" s="13">
         <v>1387</v>
@@ -35843,7 +36402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="1:103">
       <c r="B11" s="13">
         <v>1388</v>
       </c>
@@ -35884,7 +36443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:4">
+    <row r="15" spans="1:103" ht="14.25">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
@@ -35894,14 +36453,14 @@
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="1:103">
       <c r="B16" s="40" t="s">
         <v>591</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
     </row>
-    <row r="17" spans="2:53">
+    <row r="17" spans="2:53" ht="14.25">
       <c r="B17" s="11" t="s">
         <v>63</v>
       </c>
@@ -36057,15 +36616,15 @@
       </c>
       <c r="BA17" s="7"/>
     </row>
-    <row r="18" spans="2:53">
+    <row r="18" spans="2:53" ht="14.25">
       <c r="B18" s="13">
         <v>15</v>
       </c>
       <c r="C18" s="41">
-        <v>43160.5594097222</v>
+        <v>43160.559409722198</v>
       </c>
       <c r="D18" s="41">
-        <v>43160.5594097222</v>
+        <v>43160.559409722198</v>
       </c>
       <c r="E18" s="13">
         <v>0</v>
@@ -36213,15 +36772,15 @@
       </c>
       <c r="BA18" s="7"/>
     </row>
-    <row r="19" spans="2:53">
+    <row r="19" spans="2:53" ht="14.25">
       <c r="B19" s="13">
         <v>16</v>
       </c>
       <c r="C19" s="41">
-        <v>43160.5611226852</v>
+        <v>43160.561122685198</v>
       </c>
       <c r="D19" s="41">
-        <v>43160.5611226852</v>
+        <v>43160.561122685198</v>
       </c>
       <c r="E19" s="13">
         <v>0</v>
@@ -36369,15 +36928,15 @@
       </c>
       <c r="BA19" s="7"/>
     </row>
-    <row r="20" spans="2:53">
+    <row r="20" spans="2:53" ht="14.25">
       <c r="B20" s="13">
         <v>18</v>
       </c>
       <c r="C20" s="41">
-        <v>43160.5626157407</v>
+        <v>43160.562615740702</v>
       </c>
       <c r="D20" s="41">
-        <v>43160.5626157407</v>
+        <v>43160.562615740702</v>
       </c>
       <c r="E20" s="13">
         <v>0</v>
@@ -36525,15 +37084,15 @@
       </c>
       <c r="BA20" s="7"/>
     </row>
-    <row r="21" spans="2:53">
+    <row r="21" spans="2:53" ht="14.25">
       <c r="B21" s="13">
         <v>39</v>
       </c>
       <c r="C21" s="41">
-        <v>43200.4988425926</v>
+        <v>43200.498842592599</v>
       </c>
       <c r="D21" s="41">
-        <v>43200.4988425926</v>
+        <v>43200.498842592599</v>
       </c>
       <c r="E21" s="13">
         <v>0</v>
@@ -36681,15 +37240,15 @@
       </c>
       <c r="BA21" s="7"/>
     </row>
-    <row r="22" spans="2:53">
+    <row r="22" spans="2:53" ht="14.25">
       <c r="B22" s="13">
         <v>40</v>
       </c>
       <c r="C22" s="41">
-        <v>43200.5036921296</v>
+        <v>43200.503692129598</v>
       </c>
       <c r="D22" s="41">
-        <v>43200.5036921296</v>
+        <v>43200.503692129598</v>
       </c>
       <c r="E22" s="13">
         <v>0</v>
@@ -36837,15 +37396,15 @@
       </c>
       <c r="BA22" s="7"/>
     </row>
-    <row r="23" spans="2:53">
+    <row r="23" spans="2:53" ht="14.25">
       <c r="B23" s="13">
         <v>41</v>
       </c>
       <c r="C23" s="41">
-        <v>43200.5039351852</v>
+        <v>43200.503935185203</v>
       </c>
       <c r="D23" s="41">
-        <v>43200.5039351852</v>
+        <v>43200.503935185203</v>
       </c>
       <c r="E23" s="13">
         <v>0</v>
@@ -36993,15 +37552,15 @@
       </c>
       <c r="BA23" s="7"/>
     </row>
-    <row r="24" spans="2:53">
+    <row r="24" spans="2:53" ht="14.25">
       <c r="B24" s="13">
         <v>56</v>
       </c>
       <c r="C24" s="41">
-        <v>43208.3265393519</v>
+        <v>43208.326539351903</v>
       </c>
       <c r="D24" s="41">
-        <v>43208.3265393519</v>
+        <v>43208.326539351903</v>
       </c>
       <c r="E24" s="13">
         <v>0</v>
@@ -37149,15 +37708,15 @@
       </c>
       <c r="BA24" s="7"/>
     </row>
-    <row r="25" spans="2:53">
+    <row r="25" spans="2:53" ht="14.25">
       <c r="B25" s="13">
         <v>62</v>
       </c>
       <c r="C25" s="41">
-        <v>43209.2697569444</v>
+        <v>43209.269756944399</v>
       </c>
       <c r="D25" s="41">
-        <v>43210.2938425926</v>
+        <v>43210.293842592597</v>
       </c>
       <c r="E25" s="13">
         <v>0</v>
@@ -37305,38 +37864,38 @@
       </c>
       <c r="BA25" s="7"/>
     </row>
-    <row r="26" spans="3:39">
+    <row r="26" spans="2:53">
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
       <c r="AK26" s="42"/>
       <c r="AL26" s="42"/>
       <c r="AM26" s="42"/>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="2:53">
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="2:53">
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="2:53">
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="2:53">
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="2:53">
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="2:53">
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
     </row>
-    <row r="33" ht="14.25" spans="1:4">
+    <row r="33" spans="1:95" ht="14.25">
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
@@ -37346,14 +37905,14 @@
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="1:95">
       <c r="B34" s="40" t="s">
         <v>641</v>
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
     </row>
-    <row r="35" spans="2:95">
+    <row r="35" spans="1:95">
       <c r="B35" s="11" t="s">
         <v>63</v>
       </c>
@@ -37637,15 +38196,15 @@
         <v>677</v>
       </c>
     </row>
-    <row r="36" spans="2:95">
+    <row r="36" spans="1:95">
       <c r="B36" s="13">
         <v>5</v>
       </c>
       <c r="C36" s="41">
-        <v>43211.3841666667</v>
+        <v>43211.384166666699</v>
       </c>
       <c r="D36" s="41">
-        <v>43211.4412847222</v>
+        <v>43211.441284722197</v>
       </c>
       <c r="E36" s="13">
         <v>0</v>
@@ -37921,7 +38480,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="2:95">
+    <row r="37" spans="1:95">
       <c r="B37" s="13">
         <v>6</v>
       </c>
@@ -37929,7 +38488,7 @@
         <v>43213.1784259259</v>
       </c>
       <c r="D37" s="41">
-        <v>43213.4128125</v>
+        <v>43213.412812499999</v>
       </c>
       <c r="E37" s="13">
         <v>0</v>
@@ -38205,15 +38764,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="2:95">
+    <row r="38" spans="1:95">
       <c r="B38" s="13">
         <v>7</v>
       </c>
       <c r="C38" s="41">
-        <v>43213.3183912037</v>
+        <v>43213.318391203698</v>
       </c>
       <c r="D38" s="41">
-        <v>43213.3183912037</v>
+        <v>43213.318391203698</v>
       </c>
       <c r="E38" s="13">
         <v>0</v>
@@ -38489,15 +39048,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="2:95">
+    <row r="39" spans="1:95">
       <c r="B39" s="13">
         <v>8</v>
       </c>
       <c r="C39" s="41">
-        <v>43213.3396759259</v>
+        <v>43213.339675925898</v>
       </c>
       <c r="D39" s="41">
-        <v>43213.3396759259</v>
+        <v>43213.339675925898</v>
       </c>
       <c r="E39" s="13">
         <v>0</v>
@@ -38773,15 +39332,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="2:95">
+    <row r="40" spans="1:95">
       <c r="B40" s="13">
         <v>9</v>
       </c>
       <c r="C40" s="41">
-        <v>43213.3396759259</v>
+        <v>43213.339675925898</v>
       </c>
       <c r="D40" s="41">
-        <v>43213.3396759259</v>
+        <v>43213.339675925898</v>
       </c>
       <c r="E40" s="13">
         <v>0</v>
@@ -39057,15 +39616,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="2:95">
+    <row r="41" spans="1:95">
       <c r="B41" s="13">
         <v>10</v>
       </c>
       <c r="C41" s="41">
-        <v>43213.3815393519</v>
+        <v>43213.381539351903</v>
       </c>
       <c r="D41" s="41">
-        <v>43213.3815393519</v>
+        <v>43213.381539351903</v>
       </c>
       <c r="E41" s="13">
         <v>0</v>
@@ -39341,15 +39900,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="2:95">
+    <row r="42" spans="1:95">
       <c r="B42" s="13">
         <v>11</v>
       </c>
       <c r="C42" s="41">
-        <v>43213.401400463</v>
+        <v>43213.401400463001</v>
       </c>
       <c r="D42" s="41">
-        <v>43213.401400463</v>
+        <v>43213.401400463001</v>
       </c>
       <c r="E42" s="13">
         <v>0</v>
@@ -39625,15 +40184,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="2:95">
+    <row r="43" spans="1:95">
       <c r="B43" s="13">
         <v>12</v>
       </c>
       <c r="C43" s="41">
-        <v>43213.401400463</v>
+        <v>43213.401400463001</v>
       </c>
       <c r="D43" s="41">
-        <v>43213.4074305556</v>
+        <v>43213.407430555599</v>
       </c>
       <c r="E43" s="13">
         <v>0</v>
@@ -39909,68 +40468,67 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="3:4">
+    <row r="44" spans="1:95">
       <c r="C44" s="39"/>
       <c r="D44" s="39"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="12.75" spans="3:4">
+    <row r="45" spans="1:95" s="1" customFormat="1" ht="12.75">
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="5" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:N5">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM27">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B11">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:XFD4 O5:XFD10">
-    <cfRule type="cellIs" dxfId="0" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="60" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:D11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:N11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A15:$XFD44">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+  <conditionalFormatting sqref="A15:XFD44">
+    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:B45 E45:XFD45">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
@@ -39983,7 +40541,7 @@
     <col min="3" max="3" width="18.875" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>688</v>
       </c>
@@ -39992,15 +40550,15 @@
       </c>
       <c r="C1" s="15"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A2"/>
       <c r="C2" s="15"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A3"/>
       <c r="C3" s="15"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="17" t="s">
         <v>690</v>
       </c>
@@ -40009,7 +40567,7 @@
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="17" t="s">
         <v>690</v>
       </c>
@@ -40018,7 +40576,7 @@
       </c>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>690</v>
       </c>
@@ -40027,13 +40585,13 @@
       </c>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>709</v>
       </c>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>697</v>
       </c>
@@ -40042,10 +40600,10 @@
       </c>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="12" customHeight="1" spans="3:3">
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="C9" s="15"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>690</v>
       </c>
@@ -40054,7 +40612,7 @@
       </c>
       <c r="C10" s="15"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="17" t="s">
         <v>690</v>
       </c>
@@ -40063,7 +40621,7 @@
       </c>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>741</v>
       </c>
@@ -40072,7 +40630,7 @@
       </c>
       <c r="C12" s="15"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>697</v>
       </c>
@@ -40081,7 +40639,7 @@
       </c>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>741</v>
       </c>
@@ -40090,7 +40648,7 @@
       </c>
       <c r="C14" s="15"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="17" t="s">
         <v>741</v>
       </c>
@@ -40099,7 +40657,7 @@
       </c>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="17" t="s">
         <v>690</v>
       </c>
@@ -40108,7 +40666,7 @@
       </c>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="17" t="s">
         <v>697</v>
       </c>
@@ -40117,7 +40675,7 @@
       </c>
       <c r="C17" s="15"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="17" t="s">
         <v>694</v>
       </c>
@@ -40128,7 +40686,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="17" t="s">
         <v>690</v>
       </c>
@@ -40137,7 +40695,7 @@
       </c>
       <c r="C19" s="15"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="17" t="s">
         <v>697</v>
       </c>
@@ -40146,15 +40704,15 @@
       </c>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A21"/>
       <c r="C21" s="15"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A22"/>
       <c r="C22" s="15"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>690</v>
       </c>
@@ -40163,7 +40721,7 @@
       </c>
       <c r="C23" s="15"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="17" t="s">
         <v>694</v>
       </c>
@@ -40174,7 +40732,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="17" t="s">
         <v>697</v>
       </c>
@@ -40183,7 +40741,7 @@
       </c>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="17" t="s">
         <v>694</v>
       </c>
@@ -40194,7 +40752,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="17" t="s">
         <v>697</v>
       </c>
@@ -40203,7 +40761,7 @@
       </c>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="17" t="s">
         <v>690</v>
       </c>
@@ -40212,17 +40770,17 @@
       </c>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="30" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="31" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>690</v>
       </c>
@@ -40231,7 +40789,7 @@
       </c>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A32" s="17" t="s">
         <v>690</v>
       </c>
@@ -40240,13 +40798,13 @@
       </c>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A33" s="17" t="s">
         <v>709</v>
       </c>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="17" t="s">
         <v>697</v>
       </c>
@@ -40255,7 +40813,7 @@
       </c>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="17" t="s">
         <v>690</v>
       </c>
@@ -40264,13 +40822,13 @@
       </c>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="17" t="s">
         <v>709</v>
       </c>
       <c r="C36" s="15"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="17" t="s">
         <v>697</v>
       </c>
@@ -40279,24 +40837,24 @@
       </c>
       <c r="C37" s="15"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A38"/>
       <c r="C38" s="15"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A39"/>
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="1:7">
       <c r="B40" s="1"/>
       <c r="C40" s="15"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="42" spans="1:7" s="1" customFormat="1" ht="14.25">
       <c r="A42" s="17" t="s">
         <v>688</v>
       </c>
@@ -40305,10 +40863,10 @@
       </c>
       <c r="C42" s="15"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="12" customHeight="1" spans="3:3">
+    <row r="43" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="C43" s="15"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="44" spans="1:7" s="1" customFormat="1" ht="14.25">
       <c r="A44" s="17" t="s">
         <v>690</v>
       </c>
@@ -40317,7 +40875,7 @@
       </c>
       <c r="C44" s="15"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="45" spans="1:7" s="1" customFormat="1" ht="14.25">
       <c r="A45" s="17" t="s">
         <v>690</v>
       </c>
@@ -40326,13 +40884,13 @@
       </c>
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="15"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" ht="14.25" spans="1:7">
+    <row r="47" spans="1:7" ht="14.25">
       <c r="A47" s="17" t="s">
         <v>690</v>
       </c>
@@ -40345,7 +40903,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:4">
+    <row r="48" spans="1:7" ht="14.25">
       <c r="A48" s="17" t="s">
         <v>690</v>
       </c>
@@ -40355,13 +40913,13 @@
       <c r="C48" s="15"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:7">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="15"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" ht="14.25" spans="1:4">
+    <row r="50" spans="1:7" ht="14.25">
       <c r="A50" s="17" t="s">
         <v>690</v>
       </c>
@@ -40371,7 +40929,7 @@
       <c r="C50" s="15"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" ht="14.25" spans="1:4">
+    <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="17" t="s">
         <v>690</v>
       </c>
@@ -40381,12 +40939,12 @@
       <c r="C51" s="15"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="1:7">
       <c r="B52" s="16"/>
       <c r="C52" s="15"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" ht="14.25" spans="1:4">
+    <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="17" t="s">
         <v>690</v>
       </c>
@@ -40396,7 +40954,7 @@
       <c r="C53" s="15"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" ht="14.25" spans="1:4">
+    <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="17" t="s">
         <v>690</v>
       </c>
@@ -40406,7 +40964,7 @@
       <c r="C54" s="15"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="1:7">
       <c r="B55" s="16"/>
       <c r="C55" s="15"/>
       <c r="D55" s="1"/>
@@ -40414,7 +40972,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:4">
+    <row r="56" spans="1:7" ht="14.25">
       <c r="A56" s="17" t="s">
         <v>690</v>
       </c>
@@ -40424,11 +40982,11 @@
       <c r="C56" s="15"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="3:4">
+    <row r="57" spans="1:7">
       <c r="C57" s="15"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" ht="14.25" spans="1:4">
+    <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="17" t="s">
         <v>694</v>
       </c>
@@ -40440,12 +40998,12 @@
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="1:7">
       <c r="B59" s="16"/>
       <c r="C59" s="15"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" ht="14.25" spans="1:3">
+    <row r="60" spans="1:7" ht="14.25">
       <c r="A60" s="17" t="s">
         <v>690</v>
       </c>
@@ -40454,23 +41012,23 @@
       </c>
       <c r="C60" s="15"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="12" customHeight="1" spans="1:2">
+    <row r="62" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A62"/>
       <c r="B62"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="63" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A63"/>
       <c r="C63" s="15"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="64" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A64"/>
       <c r="C64" s="15"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="65" spans="1:3" s="1" customFormat="1" ht="14.25">
       <c r="A65" s="17" t="s">
         <v>688</v>
       </c>
@@ -40479,7 +41037,7 @@
       </c>
       <c r="C65" s="15"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="66" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A66" s="17" t="s">
         <v>690</v>
       </c>
@@ -40488,7 +41046,7 @@
       </c>
       <c r="C66" s="15"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="67" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A67" s="17" t="s">
         <v>690</v>
       </c>
@@ -40497,7 +41055,7 @@
       </c>
       <c r="C67" s="15"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="68" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A68" s="17" t="s">
         <v>690</v>
       </c>
@@ -40506,20 +41064,20 @@
       </c>
       <c r="C68" s="15"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="69" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A69" s="17" t="s">
         <v>709</v>
       </c>
       <c r="C69" s="15"/>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="1:3">
       <c r="B70" s="16"/>
       <c r="C70" s="15"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="12" customHeight="1" spans="3:3">
+    <row r="71" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="C71" s="15"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="72" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A72" s="17" t="s">
         <v>690</v>
       </c>
@@ -40528,7 +41086,7 @@
       </c>
       <c r="C72" s="15"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="73" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A73" s="17" t="s">
         <v>690</v>
       </c>
@@ -40537,7 +41095,7 @@
       </c>
       <c r="C73" s="15"/>
     </row>
-    <row r="74" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="74" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A74" s="17" t="s">
         <v>741</v>
       </c>
@@ -40546,7 +41104,7 @@
       </c>
       <c r="C74" s="15"/>
     </row>
-    <row r="75" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="75" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A75" s="17" t="s">
         <v>741</v>
       </c>
@@ -40555,7 +41113,7 @@
       </c>
       <c r="C75" s="15"/>
     </row>
-    <row r="76" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="76" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A76" s="17" t="s">
         <v>741</v>
       </c>
@@ -40564,7 +41122,7 @@
       </c>
       <c r="C76" s="15"/>
     </row>
-    <row r="77" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="77" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A77" s="17" t="s">
         <v>690</v>
       </c>
@@ -40573,7 +41131,7 @@
       </c>
       <c r="C77" s="15"/>
     </row>
-    <row r="78" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="78" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A78" s="17" t="s">
         <v>694</v>
       </c>
@@ -40584,7 +41142,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="79" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A79" s="17" t="s">
         <v>690</v>
       </c>
@@ -40593,16 +41151,16 @@
       </c>
       <c r="C79" s="15"/>
     </row>
-    <row r="80" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="80" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A80"/>
       <c r="B80" s="36"/>
       <c r="C80" s="15"/>
     </row>
-    <row r="81" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="81" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A81"/>
       <c r="C81" s="15"/>
     </row>
-    <row r="82" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="82" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A82" s="17" t="s">
         <v>690</v>
       </c>
@@ -40611,7 +41169,7 @@
       </c>
       <c r="C82" s="15"/>
     </row>
-    <row r="83" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="83" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A83" s="17" t="s">
         <v>694</v>
       </c>
@@ -40622,12 +41180,12 @@
         <v>773</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="84" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="15"/>
     </row>
-    <row r="85" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="85" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A85" s="17" t="s">
         <v>690</v>
       </c>
@@ -40636,7 +41194,7 @@
       </c>
       <c r="C85" s="15"/>
     </row>
-    <row r="86" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="86" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A86" s="17" t="s">
         <v>694</v>
       </c>
@@ -40647,7 +41205,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="87" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A87" s="17" t="s">
         <v>697</v>
       </c>
@@ -40656,7 +41214,7 @@
       </c>
       <c r="C87" s="15"/>
     </row>
-    <row r="88" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="88" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A88" s="17" t="s">
         <v>694</v>
       </c>
@@ -40667,12 +41225,12 @@
         <v>753</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="89" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A89"/>
       <c r="B89" s="16"/>
       <c r="C89" s="15"/>
     </row>
-    <row r="90" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="90" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A90" s="17" t="s">
         <v>690</v>
       </c>
@@ -40681,12 +41239,12 @@
       </c>
       <c r="C90" s="15"/>
     </row>
-    <row r="91" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="91" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A91"/>
       <c r="B91" s="16"/>
       <c r="C91" s="15"/>
     </row>
-    <row r="92" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="92" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A92" s="17" t="s">
         <v>690</v>
       </c>
@@ -40695,7 +41253,7 @@
       </c>
       <c r="C92" s="15"/>
     </row>
-    <row r="93" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="93" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A93" s="17" t="s">
         <v>690</v>
       </c>
@@ -40704,13 +41262,13 @@
       </c>
       <c r="C93" s="15"/>
     </row>
-    <row r="94" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="94" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A94" s="17" t="s">
         <v>709</v>
       </c>
       <c r="C94" s="15"/>
     </row>
-    <row r="95" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="95" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A95" s="17" t="s">
         <v>697</v>
       </c>
@@ -40719,7 +41277,7 @@
       </c>
       <c r="C95" s="15"/>
     </row>
-    <row r="96" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="96" spans="1:3" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A96" s="17" t="s">
         <v>690</v>
       </c>
@@ -40728,13 +41286,13 @@
       </c>
       <c r="C96" s="15"/>
     </row>
-    <row r="97" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="97" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A97" s="17" t="s">
         <v>709</v>
       </c>
       <c r="C97" s="15"/>
     </row>
-    <row r="98" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="98" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A98" s="17" t="s">
         <v>697</v>
       </c>
@@ -40743,16 +41301,16 @@
       </c>
       <c r="C98" s="15"/>
     </row>
-    <row r="99" spans="2:3">
+    <row r="99" spans="1:10">
       <c r="B99" s="1"/>
       <c r="C99" s="15"/>
     </row>
-    <row r="102" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="102" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
     </row>
-    <row r="103" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="103" spans="1:10" s="1" customFormat="1" ht="14.25">
       <c r="A103" s="17" t="s">
         <v>688</v>
       </c>
@@ -40761,13 +41319,13 @@
       </c>
       <c r="C103" s="15"/>
     </row>
-    <row r="104" s="1" customFormat="1" ht="12" customHeight="1" spans="3:10">
+    <row r="104" spans="1:10" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="C104" s="15"/>
       <c r="J104" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="105" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="105" spans="1:10" s="1" customFormat="1" ht="14.25">
       <c r="A105" s="17" t="s">
         <v>690</v>
       </c>
@@ -40776,7 +41334,7 @@
       </c>
       <c r="C105" s="15"/>
     </row>
-    <row r="106" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="106" spans="1:10" s="1" customFormat="1" ht="14.25">
       <c r="A106" s="17" t="s">
         <v>690</v>
       </c>
@@ -40785,13 +41343,13 @@
       </c>
       <c r="C106" s="15"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:10">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="15"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" ht="14.25" spans="1:7">
+    <row r="108" spans="1:10" ht="14.25">
       <c r="A108" s="17" t="s">
         <v>690</v>
       </c>
@@ -40804,7 +41362,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="109" ht="14.25" spans="1:4">
+    <row r="109" spans="1:10" ht="14.25">
       <c r="A109" s="17" t="s">
         <v>690</v>
       </c>
@@ -40814,13 +41372,13 @@
       <c r="C109" s="15"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:10">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="15"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" ht="14.25" spans="1:4">
+    <row r="111" spans="1:10" ht="14.25">
       <c r="A111" s="17" t="s">
         <v>690</v>
       </c>
@@ -40830,7 +41388,7 @@
       <c r="C111" s="15"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" ht="14.25" spans="1:4">
+    <row r="112" spans="1:10" ht="14.25">
       <c r="A112" s="17" t="s">
         <v>690</v>
       </c>
@@ -40840,12 +41398,12 @@
       <c r="C112" s="15"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="2:4">
+    <row r="113" spans="1:7">
       <c r="B113" s="16"/>
       <c r="C113" s="15"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" ht="14.25" spans="1:4">
+    <row r="114" spans="1:7" ht="14.25">
       <c r="A114" s="17" t="s">
         <v>690</v>
       </c>
@@ -40855,7 +41413,7 @@
       <c r="C114" s="15"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" ht="14.25" spans="1:4">
+    <row r="115" spans="1:7" ht="14.25">
       <c r="A115" s="17" t="s">
         <v>690</v>
       </c>
@@ -40865,7 +41423,7 @@
       <c r="C115" s="15"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="2:7">
+    <row r="116" spans="1:7">
       <c r="B116" s="16"/>
       <c r="C116" s="15"/>
       <c r="D116" s="1"/>
@@ -40873,7 +41431,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="117" ht="14.25" spans="1:4">
+    <row r="117" spans="1:7" ht="14.25">
       <c r="A117" s="17" t="s">
         <v>690</v>
       </c>
@@ -40883,11 +41441,11 @@
       <c r="C117" s="15"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="3:4">
+    <row r="118" spans="1:7">
       <c r="C118" s="15"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" ht="14.25" spans="1:4">
+    <row r="119" spans="1:7" ht="14.25">
       <c r="A119" s="17" t="s">
         <v>694</v>
       </c>
@@ -40899,12 +41457,12 @@
       </c>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="2:4">
+    <row r="120" spans="1:7">
       <c r="B120" s="16"/>
       <c r="C120" s="15"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" ht="14.25" spans="1:3">
+    <row r="121" spans="1:7" ht="14.25">
       <c r="A121" s="17" t="s">
         <v>690</v>
       </c>
@@ -40913,15 +41471,15 @@
       </c>
       <c r="C121" s="15"/>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:7">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" s="1" customFormat="1" ht="12" customHeight="1" spans="1:2">
+    <row r="123" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A123"/>
       <c r="B123"/>
     </row>
-    <row r="124" ht="14.25" spans="1:2">
+    <row r="124" spans="1:7" ht="14.25">
       <c r="A124" s="17" t="s">
         <v>688</v>
       </c>
@@ -40929,7 +41487,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="125" ht="14.25" spans="1:2">
+    <row r="125" spans="1:7" ht="14.25">
       <c r="A125" s="17" t="s">
         <v>690</v>
       </c>
@@ -40937,7 +41495,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="126" ht="14.25" spans="1:2">
+    <row r="126" spans="1:7" ht="14.25">
       <c r="A126" s="17" t="s">
         <v>690</v>
       </c>
@@ -40945,28 +41503,27 @@
         <v>782</v>
       </c>
     </row>
-    <row r="127" ht="14.25" spans="1:2">
+    <row r="127" spans="1:7" ht="14.25">
       <c r="A127" s="17" t="s">
         <v>709</v>
       </c>
       <c r="B127" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C78" r:id="rId1" display="mht@shequchina.cn"/>
-    <hyperlink ref="C18" r:id="rId1" display="mht@shequchina.cn"/>
+    <hyperlink ref="C78" r:id="rId1"/>
+    <hyperlink ref="C18" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IE44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
@@ -40987,7 +41544,7 @@
     <col min="74" max="74" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:103">
+    <row r="1" spans="1:103" s="1" customFormat="1">
       <c r="B1" s="5"/>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -41024,7 +41581,7 @@
       <c r="AI1" s="27"/>
       <c r="CY1"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:35">
+    <row r="3" spans="1:103" s="1" customFormat="1" ht="14.25">
       <c r="A3" s="28" t="s">
         <v>59</v>
       </c>
@@ -41065,13 +41622,13 @@
       <c r="AH3" s="27"/>
       <c r="AI3" s="27"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:2">
+    <row r="4" spans="1:103" s="1" customFormat="1" ht="12">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="1:103">
       <c r="B5" s="11" t="s">
         <v>63</v>
       </c>
@@ -41112,15 +41669,15 @@
         <v>716</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="1:103">
       <c r="B6" s="30" t="s">
         <v>784</v>
       </c>
       <c r="C6" s="30">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="D6" s="30">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>83</v>
@@ -41153,15 +41710,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="1:103">
       <c r="B7" s="30" t="s">
         <v>787</v>
       </c>
       <c r="C7" s="30">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="D7" s="30">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>83</v>
@@ -41194,15 +41751,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="1:103">
       <c r="B8" s="30" t="s">
         <v>788</v>
       </c>
       <c r="C8" s="30">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="D8" s="30">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>83</v>
@@ -41235,15 +41792,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="1:103">
       <c r="B9" s="30" t="s">
         <v>790</v>
       </c>
       <c r="C9" s="30">
-        <v>43262.4198148148</v>
+        <v>43262.419814814799</v>
       </c>
       <c r="D9" s="30">
-        <v>43262.4198148148</v>
+        <v>43262.419814814799</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>83</v>
@@ -41276,15 +41833,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="1:103">
       <c r="B10" s="30" t="s">
         <v>791</v>
       </c>
       <c r="C10" s="30">
-        <v>43262.4198148148</v>
+        <v>43262.419814814799</v>
       </c>
       <c r="D10" s="30">
-        <v>43262.4198148148</v>
+        <v>43262.419814814799</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>83</v>
@@ -41317,15 +41874,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="1:103">
       <c r="B11" s="30" t="s">
         <v>792</v>
       </c>
       <c r="C11" s="30">
-        <v>43262.4198148148</v>
+        <v>43262.419814814799</v>
       </c>
       <c r="D11" s="30">
-        <v>43262.4198148148</v>
+        <v>43262.419814814799</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>83</v>
@@ -41358,7 +41915,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:2">
+    <row r="16" spans="1:103" ht="14.25">
       <c r="A16" s="28" t="s">
         <v>59</v>
       </c>
@@ -41366,13 +41923,13 @@
         <v>590</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:239">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="18" spans="2:54">
+    <row r="18" spans="1:239" ht="14.25">
       <c r="B18" s="11" t="s">
         <v>63</v>
       </c>
@@ -41529,16 +42086,16 @@
       <c r="BA18" s="29"/>
       <c r="BB18" s="7"/>
     </row>
-    <row r="19" spans="1:239">
+    <row r="19" spans="1:239" ht="14.25">
       <c r="A19" s="27"/>
       <c r="B19" s="31" t="s">
         <v>786</v>
       </c>
       <c r="C19" s="30">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="D19" s="30">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>83</v>
@@ -41871,7 +42428,7 @@
       <c r="ID19" s="27"/>
       <c r="IE19" s="27"/>
     </row>
-    <row r="20" spans="1:239">
+    <row r="20" spans="1:239" ht="14.25">
       <c r="A20" s="27"/>
       <c r="B20" s="31" t="s">
         <v>717</v>
@@ -42213,15 +42770,15 @@
       <c r="ID20" s="27"/>
       <c r="IE20" s="27"/>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" spans="1:239" ht="14.25">
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="1:239" ht="14.25">
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" ht="14.25" spans="1:2">
+    <row r="25" spans="1:239" ht="14.25">
       <c r="A25" s="28" t="s">
         <v>59</v>
       </c>
@@ -42229,13 +42786,13 @@
         <v>640</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:239">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="27" spans="2:95">
+    <row r="27" spans="1:239">
       <c r="B27" s="11" t="s">
         <v>63</v>
       </c>
@@ -42525,10 +43082,10 @@
         <v>798</v>
       </c>
       <c r="C28" s="30">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="D28" s="30">
-        <v>43262.4196527778</v>
+        <v>43262.419652777797</v>
       </c>
       <c r="E28" s="32" t="s">
         <v>83</v>
@@ -42954,10 +43511,10 @@
         <v>799</v>
       </c>
       <c r="C29" s="30">
-        <v>43262.4198148148</v>
+        <v>43262.419814814799</v>
       </c>
       <c r="D29" s="30">
-        <v>43262.4198148148</v>
+        <v>43262.419814814799</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>83</v>
@@ -43377,7 +43934,7 @@
       <c r="ID29" s="27"/>
       <c r="IE29" s="27"/>
     </row>
-    <row r="32" ht="14.25" spans="1:4">
+    <row r="32" spans="1:239" ht="14.25">
       <c r="A32" s="28" t="s">
         <v>59</v>
       </c>
@@ -43387,7 +43944,7 @@
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:13" ht="14.25">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
         <v>801</v>
@@ -43395,7 +43952,7 @@
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="1:13">
       <c r="B34" s="11" t="s">
         <v>63</v>
       </c>
@@ -43427,12 +43984,12 @@
         <v>810</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="1:13">
       <c r="B35" s="31">
         <v>1</v>
       </c>
       <c r="C35" s="30">
-        <v>43158.4153009259</v>
+        <v>43158.415300925903</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>811</v>
@@ -43459,12 +44016,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="1:13">
       <c r="B36" s="31">
         <v>2</v>
       </c>
       <c r="C36" s="30">
-        <v>43159.3828819444</v>
+        <v>43159.382881944402</v>
       </c>
       <c r="D36" s="30" t="s">
         <v>811</v>
@@ -43491,17 +44048,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="1:13" ht="14.25">
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="1:13" ht="14.25">
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="3:4">
+    <row r="39" spans="1:13" ht="14.25">
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" ht="14.25" spans="1:4">
+    <row r="40" spans="1:13" ht="14.25">
       <c r="A40" s="28" t="s">
         <v>59</v>
       </c>
@@ -43511,7 +44068,7 @@
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:13" ht="14.25">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
         <v>816</v>
@@ -43519,7 +44076,7 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="1:13">
       <c r="B42" s="11" t="s">
         <v>63</v>
       </c>
@@ -43557,15 +44114,15 @@
         <v>820</v>
       </c>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="1:13">
       <c r="B43" s="31" t="s">
         <v>821</v>
       </c>
       <c r="C43" s="30">
-        <v>43263.2431134259</v>
+        <v>43263.243113425902</v>
       </c>
       <c r="D43" s="30">
-        <v>43263.2431134259</v>
+        <v>43263.243113425902</v>
       </c>
       <c r="E43" s="32" t="s">
         <v>83</v>
@@ -43574,7 +44131,7 @@
         <v>84</v>
       </c>
       <c r="G43" s="30">
-        <v>43263.2431134259</v>
+        <v>43263.243113425902</v>
       </c>
       <c r="H43" s="31" t="s">
         <v>822</v>
@@ -43595,15 +44152,15 @@
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="1:13">
       <c r="B44" s="31" t="s">
         <v>825</v>
       </c>
       <c r="C44" s="30">
-        <v>43263.2436574074</v>
+        <v>43263.243657407402</v>
       </c>
       <c r="D44" s="30">
-        <v>43263.2436574074</v>
+        <v>43263.243657407402</v>
       </c>
       <c r="E44" s="33" t="s">
         <v>83</v>
@@ -43612,7 +44169,7 @@
         <v>84</v>
       </c>
       <c r="G44" s="30">
-        <v>43263.2436574074</v>
+        <v>43263.243657407402</v>
       </c>
       <c r="H44" s="31" t="s">
         <v>826</v>
@@ -43634,174 +44191,173 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="C5:D5">
-    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="32" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:N5">
-    <cfRule type="cellIs" dxfId="0" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:BA18">
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ19">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ20">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:CQ27">
-    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:K34">
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:M42">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="23" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="cellIs" dxfId="0" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B29">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:B36">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:B44">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:C36">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F11">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="43" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F36">
-    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G29">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:G36">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:G44">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J11">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="41" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:J36">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:K20">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:K36">
-    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M11">
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="42" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:XFD4">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="47" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:D20">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:J20 L19:P20">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="39" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19:AY20">
-    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="38" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:D29">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:I29">
-    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="34" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:CQ29">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="33" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:D44">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43:M44">
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:L24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -43820,7 +44376,7 @@
     <col min="9" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:12">
       <c r="B4" s="21" t="s">
         <v>827</v>
       </c>
@@ -43843,7 +44399,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:12">
       <c r="B5" s="26" t="s">
         <v>832</v>
       </c>
@@ -43860,12 +44416,12 @@
         <v>836</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:12">
       <c r="B6" s="26" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:12">
       <c r="B7" s="26" t="s">
         <v>838</v>
       </c>
@@ -43884,30 +44440,30 @@
         <v>842</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:12">
       <c r="B9" s="26" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:12">
       <c r="B10" s="26"/>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:12">
       <c r="B11" s="26"/>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:12">
       <c r="B12" s="26"/>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="2:12">
       <c r="B13" s="26"/>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:12">
       <c r="B14" s="26"/>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:12">
       <c r="B15" s="26"/>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:12">
       <c r="B16" s="26"/>
     </row>
     <row r="17" spans="2:2">
@@ -43935,18 +44491,17 @@
       <c r="B24" s="26"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A9:N84"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
@@ -43955,19 +44510,19 @@
     <col min="3" max="4" width="16.875"/>
   </cols>
   <sheetData>
-    <row r="9" customFormat="1" ht="14.25" spans="1:2">
+    <row r="9" spans="1:14" ht="14.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:2">
+    <row r="10" spans="1:14">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="2:14">
+    <row r="11" spans="1:14" ht="14.25">
       <c r="B11" s="6" t="s">
         <v>63</v>
       </c>
@@ -44008,15 +44563,15 @@
         <v>716</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="2:14">
+    <row r="12" spans="1:14" ht="14.25">
       <c r="B12" s="7">
         <v>1386</v>
       </c>
       <c r="C12" s="8">
-        <v>43234.3621527778</v>
+        <v>43234.362152777801</v>
       </c>
       <c r="D12" s="8">
-        <v>43234.3621527778</v>
+        <v>43234.362152777801</v>
       </c>
       <c r="E12" s="7">
         <v>0</v>
@@ -44049,15 +44604,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="2:14">
+    <row r="13" spans="1:14" ht="14.25">
       <c r="B13" s="7">
         <v>1387</v>
       </c>
       <c r="C13" s="8">
-        <v>43234.3621527778</v>
+        <v>43234.362152777801</v>
       </c>
       <c r="D13" s="8">
-        <v>43234.3621527778</v>
+        <v>43234.362152777801</v>
       </c>
       <c r="E13" s="7">
         <v>0</v>
@@ -44090,15 +44645,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="2:14">
+    <row r="14" spans="1:14" ht="14.25">
       <c r="B14" s="7">
         <v>1388</v>
       </c>
       <c r="C14" s="8">
-        <v>43234.3621527778</v>
+        <v>43234.362152777801</v>
       </c>
       <c r="D14" s="8">
-        <v>43234.3621527778</v>
+        <v>43234.362152777801</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -44131,16 +44686,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="14.25">
       <c r="A15" s="1"/>
       <c r="B15" s="7">
         <v>1813</v>
       </c>
       <c r="C15" s="8">
-        <v>43243.0859259259</v>
+        <v>43243.085925925901</v>
       </c>
       <c r="D15" s="8">
-        <v>43243.0859259259</v>
+        <v>43243.085925925901</v>
       </c>
       <c r="E15" s="7">
         <v>0</v>
@@ -44173,16 +44728,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="14.25">
       <c r="A16" s="1"/>
       <c r="B16" s="7">
         <v>1814</v>
       </c>
       <c r="C16" s="8">
-        <v>43243.0859259259</v>
+        <v>43243.085925925901</v>
       </c>
       <c r="D16" s="8">
-        <v>43243.0859259259</v>
+        <v>43243.085925925901</v>
       </c>
       <c r="E16" s="7">
         <v>0</v>
@@ -44215,16 +44770,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" ht="14.25">
       <c r="A17" s="1"/>
       <c r="B17" s="7">
         <v>1815</v>
       </c>
       <c r="C17" s="8">
-        <v>43243.0859259259</v>
+        <v>43243.085925925901</v>
       </c>
       <c r="D17" s="8">
-        <v>43243.0859259259</v>
+        <v>43243.085925925901</v>
       </c>
       <c r="E17" s="7">
         <v>0</v>
@@ -44257,18 +44812,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:14">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:14">
       <c r="A19" s="1"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:14" ht="14.25">
       <c r="A24" s="1"/>
       <c r="B24" s="9"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" ht="14.25" spans="1:3">
+    <row r="25" spans="1:14" ht="14.25">
       <c r="A25" s="2" t="s">
         <v>844</v>
       </c>
@@ -44277,7 +44832,7 @@
       </c>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" ht="17" customHeight="1" spans="2:3">
+    <row r="26" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="B26" s="10" t="s">
         <v>846</v>
       </c>
@@ -44409,10 +44964,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:14">
       <c r="A30" s="1"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A35" s="14" t="s">
         <v>688</v>
       </c>
@@ -44421,13 +44976,13 @@
       </c>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="12" spans="3:3">
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="12">
       <c r="C36" s="15"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="12" spans="3:3">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="12">
       <c r="C37" s="15"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="14" t="s">
         <v>690</v>
       </c>
@@ -44436,7 +44991,7 @@
       </c>
       <c r="C38" s="15"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="14.25">
       <c r="A39" s="14" t="s">
         <v>690</v>
       </c>
@@ -44445,10 +45000,10 @@
       </c>
       <c r="C39" s="15"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="12" spans="3:3">
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="12">
       <c r="C40" s="15"/>
     </row>
-    <row r="41" customFormat="1" ht="14.25" spans="1:4">
+    <row r="41" spans="1:7" ht="14.25">
       <c r="A41" s="14" t="s">
         <v>690</v>
       </c>
@@ -44458,7 +45013,7 @@
       <c r="C41" s="15"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" customFormat="1" ht="14.25" spans="1:7">
+    <row r="42" spans="1:7" ht="14.25">
       <c r="A42" s="14" t="s">
         <v>690</v>
       </c>
@@ -44471,19 +45026,19 @@
         <v>762</v>
       </c>
     </row>
-    <row r="43" customFormat="1" spans="1:4">
+    <row r="43" spans="1:7">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="15"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" customFormat="1" spans="1:4">
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="15"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" customFormat="1" ht="14.25" spans="1:4">
+    <row r="45" spans="1:7" ht="14.25">
       <c r="A45" s="14" t="s">
         <v>690</v>
       </c>
@@ -44493,7 +45048,7 @@
       <c r="C45" s="15"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" customFormat="1" ht="14.25" spans="1:4">
+    <row r="46" spans="1:7" ht="14.25">
       <c r="A46" s="14" t="s">
         <v>690</v>
       </c>
@@ -44503,7 +45058,7 @@
       <c r="C46" s="15"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" customFormat="1" ht="14.25" spans="1:4">
+    <row r="47" spans="1:7" ht="14.25">
       <c r="A47" s="14" t="s">
         <v>690</v>
       </c>
@@ -44513,7 +45068,7 @@
       <c r="C47" s="15"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" customFormat="1" ht="14.25" spans="1:4">
+    <row r="48" spans="1:7" ht="14.25">
       <c r="A48" s="14" t="s">
         <v>690</v>
       </c>
@@ -44523,7 +45078,7 @@
       <c r="C48" s="15"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" customFormat="1" ht="14.25" spans="1:7">
+    <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="14" t="s">
         <v>690</v>
       </c>
@@ -44536,11 +45091,11 @@
         <v>853</v>
       </c>
     </row>
-    <row r="50" customFormat="1" spans="3:4">
+    <row r="50" spans="1:7">
       <c r="C50" s="15"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" customFormat="1" ht="14.25" spans="1:4">
+    <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="14" t="s">
         <v>694</v>
       </c>
@@ -44552,7 +45107,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" customFormat="1" ht="14.25" spans="1:4">
+    <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="14" t="s">
         <v>697</v>
       </c>
@@ -44562,7 +45117,7 @@
       <c r="C52" s="15"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" customFormat="1" ht="14.25" spans="1:7">
+    <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="14" t="s">
         <v>690</v>
       </c>
@@ -44575,15 +45130,15 @@
         <v>856</v>
       </c>
     </row>
-    <row r="54" customFormat="1" spans="3:4">
+    <row r="54" spans="1:7">
       <c r="C54" s="15"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" customFormat="1" spans="3:4">
+    <row r="55" spans="1:7">
       <c r="C55" s="15"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="56" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A56" s="17" t="s">
         <v>688</v>
       </c>
@@ -44592,10 +45147,10 @@
       </c>
       <c r="C56" s="15"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="12" spans="3:3">
+    <row r="57" spans="1:7" s="1" customFormat="1" ht="12">
       <c r="C57" s="15"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="58" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A58" s="17" t="s">
         <v>690</v>
       </c>
@@ -44604,7 +45159,7 @@
       </c>
       <c r="C58" s="15"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="59" spans="1:7" s="1" customFormat="1" ht="14.25">
       <c r="A59" s="17" t="s">
         <v>690</v>
       </c>
@@ -44613,10 +45168,10 @@
       </c>
       <c r="C59" s="15"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="12" spans="3:3">
+    <row r="60" spans="1:7" s="1" customFormat="1" ht="12">
       <c r="C60" s="15"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="61" spans="1:7" s="1" customFormat="1" ht="14.25">
       <c r="A61" s="17" t="s">
         <v>690</v>
       </c>
@@ -44625,19 +45180,19 @@
       </c>
       <c r="C61" s="15"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="12" spans="3:3">
+    <row r="62" spans="1:7" s="1" customFormat="1" ht="12">
       <c r="C62" s="15"/>
     </row>
-    <row r="63" customFormat="1" spans="3:4">
+    <row r="63" spans="1:7">
       <c r="C63" s="15"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="12" customHeight="1" spans="1:3">
+    <row r="64" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="65" spans="1:7" s="1" customFormat="1" ht="14.25">
       <c r="A65" s="14" t="s">
         <v>688</v>
       </c>
@@ -44646,10 +45201,10 @@
       </c>
       <c r="C65" s="15"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="12" customHeight="1" spans="3:3">
+    <row r="66" spans="1:7" s="1" customFormat="1" ht="12" customHeight="1">
       <c r="C66" s="15"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="67" spans="1:7" s="1" customFormat="1" ht="14.25">
       <c r="A67" s="14" t="s">
         <v>690</v>
       </c>
@@ -44658,7 +45213,7 @@
       </c>
       <c r="C67" s="15"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="68" spans="1:7" s="1" customFormat="1" ht="14.25">
       <c r="A68" s="14" t="s">
         <v>690</v>
       </c>
@@ -44667,13 +45222,13 @@
       </c>
       <c r="C68" s="15"/>
     </row>
-    <row r="69" customFormat="1" spans="1:4">
+    <row r="69" spans="1:7">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="15"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" customFormat="1" ht="14.25" spans="1:7">
+    <row r="70" spans="1:7" ht="14.25">
       <c r="A70" s="14" t="s">
         <v>690</v>
       </c>
@@ -44686,7 +45241,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="71" customFormat="1" ht="14.25" spans="1:4">
+    <row r="71" spans="1:7" ht="14.25">
       <c r="A71" s="14" t="s">
         <v>690</v>
       </c>
@@ -44696,13 +45251,13 @@
       <c r="C71" s="15"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" customFormat="1" spans="1:4">
+    <row r="72" spans="1:7">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="15"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" customFormat="1" ht="14.25" spans="1:4">
+    <row r="73" spans="1:7" ht="14.25">
       <c r="A73" s="14" t="s">
         <v>690</v>
       </c>
@@ -44712,7 +45267,7 @@
       <c r="C73" s="15"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" customFormat="1" ht="14.25" spans="1:4">
+    <row r="74" spans="1:7" ht="14.25">
       <c r="A74" s="14" t="s">
         <v>690</v>
       </c>
@@ -44722,12 +45277,12 @@
       <c r="C74" s="15"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" customFormat="1" spans="2:4">
+    <row r="75" spans="1:7">
       <c r="B75" s="16"/>
       <c r="C75" s="15"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" customFormat="1" ht="14.25" spans="1:4">
+    <row r="76" spans="1:7" ht="14.25">
       <c r="A76" s="14" t="s">
         <v>690</v>
       </c>
@@ -44737,7 +45292,7 @@
       <c r="C76" s="15"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" customFormat="1" ht="14.25" spans="1:4">
+    <row r="77" spans="1:7" ht="14.25">
       <c r="A77" s="14" t="s">
         <v>690</v>
       </c>
@@ -44747,12 +45302,12 @@
       <c r="C77" s="15"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" customFormat="1" spans="2:4">
+    <row r="78" spans="1:7">
       <c r="B78" s="16"/>
       <c r="C78" s="15"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" customFormat="1" ht="14.25" spans="1:7">
+    <row r="79" spans="1:7" ht="14.25">
       <c r="A79" s="14" t="s">
         <v>690</v>
       </c>
@@ -44765,11 +45320,11 @@
         <v>768</v>
       </c>
     </row>
-    <row r="80" customFormat="1" spans="3:4">
+    <row r="80" spans="1:7">
       <c r="C80" s="15"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" customFormat="1" ht="14.25" spans="1:4">
+    <row r="81" spans="1:7" ht="14.25">
       <c r="A81" s="14" t="s">
         <v>694</v>
       </c>
@@ -44781,12 +45336,12 @@
       </c>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" customFormat="1" spans="2:4">
+    <row r="82" spans="1:7">
       <c r="B82" s="16"/>
       <c r="C82" s="15"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" customFormat="1" ht="14.25" spans="1:7">
+    <row r="83" spans="1:7" ht="14.25">
       <c r="A83" s="14" t="s">
         <v>690</v>
       </c>
@@ -44798,63 +45353,64 @@
         <v>856</v>
       </c>
     </row>
-    <row r="84" customFormat="1" spans="1:3">
+    <row r="84" spans="1:7">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:N27">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J29">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:K29">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28:L29">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:IE19 O15:IE17 A15:A17">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:IE26 A30:IE30 O27:IE29 A27:A29">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24 A25">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -44864,11 +45420,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:N29">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>